--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8179997587335777</v>
+        <v>0.8179997587336061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3319331396542964</v>
+        <v>0.3319331396545806</v>
       </c>
       <c r="E2">
-        <v>0.1912326336843684</v>
+        <v>0.1912326336843577</v>
       </c>
       <c r="F2">
-        <v>6.58291142181173</v>
+        <v>6.582911421811644</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0735471237916725</v>
+        <v>0.07354712379166273</v>
       </c>
       <c r="J2">
-        <v>2.556395630374453</v>
+        <v>2.556395630374482</v>
       </c>
       <c r="K2">
-        <v>0.9005785484304738</v>
+        <v>0.9005785484304312</v>
       </c>
       <c r="L2">
-        <v>1.078831274778857</v>
+        <v>1.078831274778871</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7074780222597781</v>
+        <v>0.7074780222598918</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.283484362888899</v>
+        <v>0.2834843628889132</v>
       </c>
       <c r="E3">
-        <v>0.165876417462318</v>
+        <v>0.1658764174623641</v>
       </c>
       <c r="F3">
         <v>5.697489861520864</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06765634514921448</v>
+        <v>0.0676563451492358</v>
       </c>
       <c r="J3">
         <v>2.176488909622194</v>
       </c>
       <c r="K3">
-        <v>0.7661413649713609</v>
+        <v>0.7661413649714177</v>
       </c>
       <c r="L3">
         <v>0.9214030484386555</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6413366957617086</v>
+        <v>0.6413366957615949</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2551654730632293</v>
+        <v>0.255165473062803</v>
       </c>
       <c r="E4">
-        <v>0.1509383943254576</v>
+        <v>0.1509383943254541</v>
       </c>
       <c r="F4">
         <v>5.178782501071566</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06419891416842471</v>
+        <v>0.06419891416843004</v>
       </c>
       <c r="J4">
-        <v>1.951061934792605</v>
+        <v>1.951061934792548</v>
       </c>
       <c r="K4">
-        <v>0.6865620484449266</v>
+        <v>0.6865620484449053</v>
       </c>
       <c r="L4">
-        <v>0.8279008194089883</v>
+        <v>0.8279008194089812</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6147490248760334</v>
+        <v>0.614749024876005</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2439220791232657</v>
+        <v>0.2439220791231946</v>
       </c>
       <c r="E5">
-        <v>0.1449752626810721</v>
+        <v>0.1449752626810934</v>
       </c>
       <c r="F5">
-        <v>4.972640276918952</v>
+        <v>4.972640276919094</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06282002732475522</v>
+        <v>0.06282002732475345</v>
       </c>
       <c r="J5">
-        <v>1.860802111780998</v>
+        <v>1.86080211178097</v>
       </c>
       <c r="K5">
-        <v>0.6547435478790931</v>
+        <v>0.6547435478790717</v>
       </c>
       <c r="L5">
-        <v>0.7904532596958376</v>
+        <v>0.7904532596958234</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2420714101507855</v>
+        <v>0.2420714101509134</v>
       </c>
       <c r="E6">
-        <v>0.1439917051145905</v>
+        <v>0.1439917051145727</v>
       </c>
       <c r="F6">
         <v>4.938699461850888</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06259262135339316</v>
+        <v>0.06259262135338872</v>
       </c>
       <c r="J6">
-        <v>1.845901782854725</v>
+        <v>1.845901782854781</v>
       </c>
       <c r="K6">
-        <v>0.6494934621956716</v>
+        <v>0.6494934621956929</v>
       </c>
       <c r="L6">
-        <v>0.7842710508341142</v>
+        <v>0.7842710508341213</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6409767269134647</v>
+        <v>0.6409767269135216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2550127142869059</v>
+        <v>0.2550127142870053</v>
       </c>
       <c r="E7">
-        <v>0.1508575113064374</v>
+        <v>0.1508575113064126</v>
       </c>
       <c r="F7">
-        <v>5.175982449499998</v>
+        <v>5.175982449500026</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06418020824568504</v>
+        <v>0.06418020824566728</v>
       </c>
       <c r="J7">
         <v>1.949838608141363</v>
       </c>
       <c r="K7">
-        <v>0.6861306226739856</v>
+        <v>0.6861306226740211</v>
       </c>
       <c r="L7">
-        <v>0.8273933027882094</v>
+        <v>0.8273933027882023</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7794914539584283</v>
+        <v>0.7794914539585136</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3148903350115688</v>
+        <v>0.3148903350116825</v>
       </c>
       <c r="E8">
-        <v>0.1823360300608599</v>
+        <v>0.1823360300608421</v>
       </c>
       <c r="F8">
-        <v>6.271760222615399</v>
+        <v>6.271760222615484</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07147612959840099</v>
+        <v>0.07147612959839211</v>
       </c>
       <c r="J8">
-        <v>2.423535387135672</v>
+        <v>2.423535387135601</v>
       </c>
       <c r="K8">
-        <v>0.8535202700624183</v>
+        <v>0.8535202700624467</v>
       </c>
       <c r="L8">
         <v>1.023803043029083</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.068436706214811</v>
+        <v>1.068436706214328</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4471801470150467</v>
+        <v>0.4471801470149899</v>
       </c>
       <c r="E9">
-        <v>0.2510702296991916</v>
+        <v>0.2510702296992342</v>
       </c>
       <c r="F9">
-        <v>8.676738197390051</v>
+        <v>8.676738197390108</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08764600980108561</v>
+        <v>0.08764600980107584</v>
       </c>
       <c r="J9">
-        <v>3.435449634380049</v>
+        <v>3.435449634380063</v>
       </c>
       <c r="K9">
-        <v>1.212934443532589</v>
+        <v>1.212934443532561</v>
       </c>
       <c r="L9">
         <v>1.441840747901182</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.297844721099153</v>
+        <v>1.297844721098983</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.559994955966971</v>
+        <v>0.55999495596717</v>
       </c>
       <c r="E10">
-        <v>0.3096808570556888</v>
+        <v>0.3096808570556604</v>
       </c>
       <c r="F10">
         <v>10.70695511051855</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1018330931395965</v>
+        <v>0.1018330931395806</v>
       </c>
       <c r="J10">
         <v>4.268188564030396</v>
       </c>
       <c r="K10">
-        <v>1.510134195361431</v>
+        <v>1.510134195361445</v>
       </c>
       <c r="L10">
-        <v>1.78337005465373</v>
+        <v>1.783370054653702</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.408008462396623</v>
+        <v>1.408008462396481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6169044785111737</v>
+        <v>0.6169044785109179</v>
       </c>
       <c r="E11">
-        <v>0.3394468702209821</v>
+        <v>0.3394468702209466</v>
       </c>
       <c r="F11">
-        <v>11.72315250763762</v>
+        <v>11.72315250763756</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1092077680196724</v>
+        <v>0.1092077680196688</v>
       </c>
       <c r="J11">
-        <v>4.679368438855334</v>
+        <v>4.679368438855363</v>
       </c>
       <c r="K11">
-        <v>1.657246305354619</v>
+        <v>1.657246305354647</v>
       </c>
       <c r="L11">
-        <v>1.950943381031067</v>
+        <v>1.950943381031081</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.450807312092081</v>
+        <v>1.450807312092309</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6395320731150491</v>
+        <v>0.639532073115106</v>
       </c>
       <c r="E12">
-        <v>0.3513376076515584</v>
+        <v>0.3513376076515087</v>
       </c>
       <c r="F12">
         <v>12.12565295303432</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1121879012736482</v>
+        <v>0.1121879012736358</v>
       </c>
       <c r="J12">
-        <v>4.84133951384311</v>
+        <v>4.841339513843053</v>
       </c>
       <c r="K12">
-        <v>1.715251536197002</v>
+        <v>1.715251536197016</v>
       </c>
       <c r="L12">
-        <v>2.016736919643733</v>
+        <v>2.016736919643719</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.441536786945449</v>
+        <v>1.441536786945505</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6346053697969865</v>
+        <v>0.6346053697968443</v>
       </c>
       <c r="E13">
-        <v>0.3487456374779114</v>
+        <v>0.3487456374778972</v>
       </c>
       <c r="F13">
-        <v>12.03809264519595</v>
+        <v>12.03809264519572</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1115365916654536</v>
+        <v>0.1115365916653879</v>
       </c>
       <c r="J13">
-        <v>4.806144814741998</v>
+        <v>4.80614481474197</v>
       </c>
       <c r="K13">
-        <v>1.702645123679957</v>
+        <v>1.702645123679929</v>
       </c>
       <c r="L13">
-        <v>2.002451470599098</v>
+        <v>2.00245147059907</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411506130671626</v>
+        <v>1.411506130671768</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6187425232363353</v>
+        <v>0.61874252323571</v>
       </c>
       <c r="E14">
-        <v>0.3404114703060799</v>
+        <v>0.3404114703061154</v>
       </c>
       <c r="F14">
         <v>11.75588093608678</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1094487845734111</v>
+        <v>0.1094487845733827</v>
       </c>
       <c r="J14">
         <v>4.692556803530522</v>
       </c>
       <c r="K14">
-        <v>1.661968237139462</v>
+        <v>1.661968237139433</v>
       </c>
       <c r="L14">
         <v>1.956305291209674</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6091762804718428</v>
+        <v>0.6091762804719565</v>
       </c>
       <c r="E15">
-        <v>0.3353935221832955</v>
+        <v>0.3353935221832245</v>
       </c>
       <c r="F15">
-        <v>11.58547946458555</v>
+        <v>11.58547946458532</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1081964051441044</v>
+        <v>0.1081964051441204</v>
       </c>
       <c r="J15">
-        <v>4.623855423931985</v>
+        <v>4.623855423931957</v>
       </c>
       <c r="K15">
-        <v>1.637372753942671</v>
+        <v>1.637372753942643</v>
       </c>
       <c r="L15">
-        <v>1.928364767906103</v>
+        <v>1.928364767906075</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.290781392681566</v>
+        <v>1.290781392681623</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5564093703722222</v>
+        <v>0.5564093703724495</v>
       </c>
       <c r="E16">
-        <v>0.3078112569562492</v>
+        <v>0.3078112569563061</v>
       </c>
       <c r="F16">
-        <v>10.64274645257206</v>
+        <v>10.64274645257211</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1013738703139531</v>
+        <v>0.1013738703139637</v>
       </c>
       <c r="J16">
-        <v>4.24209272968568</v>
+        <v>4.242092729685766</v>
       </c>
       <c r="K16">
-        <v>1.500804958906471</v>
+        <v>1.500804958906443</v>
       </c>
       <c r="L16">
-        <v>1.772709479945433</v>
+        <v>1.772709479945448</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.229552013423898</v>
+        <v>1.229552013423842</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5256349925554957</v>
+        <v>0.5256349925554105</v>
       </c>
       <c r="E17">
-        <v>0.2917880719549188</v>
+        <v>0.2917880719549046</v>
       </c>
       <c r="F17">
-        <v>10.09078154037078</v>
+        <v>10.09078154037084</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09745684214140837</v>
+        <v>0.09745684214139061</v>
       </c>
       <c r="J17">
         <v>4.017154743986822</v>
@@ -1012,7 +1012,7 @@
         <v>1.42042930131592</v>
       </c>
       <c r="L17">
-        <v>1.680699649979005</v>
+        <v>1.680699649979033</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.194862315723412</v>
+        <v>1.194862315723441</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5084395896525393</v>
+        <v>0.5084395896529088</v>
       </c>
       <c r="E18">
-        <v>0.2828507179785404</v>
+        <v>0.2828507179785902</v>
       </c>
       <c r="F18">
-        <v>9.781693375590862</v>
+        <v>9.781693375591033</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09528625051739859</v>
+        <v>0.09528625051745276</v>
       </c>
       <c r="J18">
-        <v>3.890699240876415</v>
+        <v>3.890699240876472</v>
       </c>
       <c r="K18">
-        <v>1.375276253924142</v>
+        <v>1.37527625392417</v>
       </c>
       <c r="L18">
-        <v>1.628883084074786</v>
+        <v>1.628883084074772</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.183201354774411</v>
+        <v>1.183201354774326</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5026975121600969</v>
+        <v>0.5026975121599548</v>
       </c>
       <c r="E19">
-        <v>0.2798683516550611</v>
+        <v>0.2798683516550398</v>
       </c>
       <c r="F19">
-        <v>9.678373122356277</v>
+        <v>9.678373122356192</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09456414460655438</v>
+        <v>0.09456414460658014</v>
       </c>
       <c r="J19">
-        <v>3.848345595099204</v>
+        <v>3.848345595099147</v>
       </c>
       <c r="K19">
-        <v>1.360158651297169</v>
+        <v>1.360158651297155</v>
       </c>
       <c r="L19">
-        <v>1.611514162483317</v>
+        <v>1.61151416248326</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5288570259812957</v>
+        <v>0.5288570259810967</v>
       </c>
       <c r="E20">
-        <v>0.293463880612137</v>
+        <v>0.2934638806121228</v>
       </c>
       <c r="F20">
-        <v>10.14864436494716</v>
+        <v>10.14864436494705</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09786496264627065</v>
+        <v>0.09786496264626177</v>
       </c>
       <c r="J20">
-        <v>4.040787448960572</v>
+        <v>4.040787448960629</v>
       </c>
       <c r="K20">
-        <v>1.428870408288745</v>
+        <v>1.428870408288731</v>
       </c>
       <c r="L20">
         <v>1.690376323180288</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.420295083920564</v>
+        <v>1.420295083920365</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6233698732778521</v>
+        <v>0.6233698732778805</v>
       </c>
       <c r="E21">
-        <v>0.3428408745119214</v>
+        <v>0.3428408745119924</v>
       </c>
       <c r="F21">
-        <v>11.83825011582502</v>
+        <v>11.83825011582474</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1100563744338245</v>
+        <v>0.1100563744337961</v>
       </c>
       <c r="J21">
-        <v>4.725734273056247</v>
+        <v>4.725734273056219</v>
       </c>
       <c r="K21">
-        <v>1.67384789703371</v>
+        <v>1.673847897033752</v>
       </c>
       <c r="L21">
-        <v>1.969790373051367</v>
+        <v>1.969790373051353</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.547228865195507</v>
+        <v>1.547228865195535</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6916355974316843</v>
+        <v>0.691635597431457</v>
       </c>
       <c r="E22">
-        <v>0.378861772443166</v>
+        <v>0.3788617724432157</v>
       </c>
       <c r="F22">
-        <v>13.04903818526498</v>
+        <v>13.04903818526486</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1191633120111852</v>
+        <v>0.1191633120111906</v>
       </c>
       <c r="J22">
-        <v>5.211191391189345</v>
+        <v>5.211191391189374</v>
       </c>
       <c r="K22">
-        <v>1.84780493825879</v>
+        <v>1.847804938258776</v>
       </c>
       <c r="L22">
-        <v>2.166481488914044</v>
+        <v>2.166481488914073</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.478780644341157</v>
+        <v>1.478780644341128</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6544847540837111</v>
+        <v>0.654484754083569</v>
       </c>
       <c r="E23">
-        <v>0.3592150451309379</v>
+        <v>0.3592150451308811</v>
       </c>
       <c r="F23">
-        <v>12.3911397288739</v>
+        <v>12.39113972887378</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1141731839134419</v>
+        <v>0.114173183913433</v>
       </c>
       <c r="J23">
-        <v>4.947917154594194</v>
+        <v>4.947917154594137</v>
       </c>
       <c r="K23">
-        <v>1.753434632833503</v>
+        <v>1.753434632833475</v>
       </c>
       <c r="L23">
-        <v>2.059959160530511</v>
+        <v>2.059959160530525</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.233090860871329</v>
+        <v>1.233090860871215</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5273988150316882</v>
+        <v>0.5273988150318587</v>
       </c>
       <c r="E24">
-        <v>0.2927054041568482</v>
+        <v>0.2927054041568908</v>
       </c>
       <c r="F24">
-        <v>10.12245920883001</v>
+        <v>10.12245920883009</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.09768020173376257</v>
+        <v>0.09768020173378922</v>
       </c>
       <c r="J24">
-        <v>4.03009429344587</v>
+        <v>4.030094293445813</v>
       </c>
       <c r="K24">
         <v>1.425050935322716</v>
       </c>
       <c r="L24">
-        <v>1.6859981723793</v>
+        <v>1.685998172379314</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9878301952425943</v>
+        <v>0.9878301952427648</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4092291530137402</v>
+        <v>0.4092291530137118</v>
       </c>
       <c r="E25">
-        <v>0.231397654457524</v>
+        <v>0.2313976544575347</v>
       </c>
       <c r="F25">
-        <v>7.989323421277362</v>
+        <v>7.989323421277419</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.08297334087419994</v>
+        <v>0.0829733408742559</v>
       </c>
       <c r="J25">
-        <v>3.149445703912392</v>
+        <v>3.149445703912463</v>
       </c>
       <c r="K25">
-        <v>1.111133323239727</v>
+        <v>1.111133323239713</v>
       </c>
       <c r="L25">
-        <v>1.323972222558595</v>
+        <v>1.323972222558609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8179997587336061</v>
+        <v>0.8179997587335777</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3319331396545806</v>
+        <v>0.3319331396542964</v>
       </c>
       <c r="E2">
-        <v>0.1912326336843577</v>
+        <v>0.1912326336843684</v>
       </c>
       <c r="F2">
-        <v>6.582911421811644</v>
+        <v>6.58291142181173</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07354712379166273</v>
+        <v>0.0735471237916725</v>
       </c>
       <c r="J2">
-        <v>2.556395630374482</v>
+        <v>2.556395630374453</v>
       </c>
       <c r="K2">
-        <v>0.9005785484304312</v>
+        <v>0.9005785484304738</v>
       </c>
       <c r="L2">
-        <v>1.078831274778871</v>
+        <v>1.078831274778857</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7074780222598918</v>
+        <v>0.7074780222597781</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2834843628889132</v>
+        <v>0.283484362888899</v>
       </c>
       <c r="E3">
-        <v>0.1658764174623641</v>
+        <v>0.165876417462318</v>
       </c>
       <c r="F3">
         <v>5.697489861520864</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0676563451492358</v>
+        <v>0.06765634514921448</v>
       </c>
       <c r="J3">
         <v>2.176488909622194</v>
       </c>
       <c r="K3">
-        <v>0.7661413649714177</v>
+        <v>0.7661413649713609</v>
       </c>
       <c r="L3">
         <v>0.9214030484386555</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6413366957615949</v>
+        <v>0.6413366957617086</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.255165473062803</v>
+        <v>0.2551654730632293</v>
       </c>
       <c r="E4">
-        <v>0.1509383943254541</v>
+        <v>0.1509383943254576</v>
       </c>
       <c r="F4">
         <v>5.178782501071566</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06419891416843004</v>
+        <v>0.06419891416842471</v>
       </c>
       <c r="J4">
-        <v>1.951061934792548</v>
+        <v>1.951061934792605</v>
       </c>
       <c r="K4">
-        <v>0.6865620484449053</v>
+        <v>0.6865620484449266</v>
       </c>
       <c r="L4">
-        <v>0.8279008194089812</v>
+        <v>0.8279008194089883</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.614749024876005</v>
+        <v>0.6147490248760334</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2439220791231946</v>
+        <v>0.2439220791232657</v>
       </c>
       <c r="E5">
-        <v>0.1449752626810934</v>
+        <v>0.1449752626810721</v>
       </c>
       <c r="F5">
-        <v>4.972640276919094</v>
+        <v>4.972640276918952</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06282002732475345</v>
+        <v>0.06282002732475522</v>
       </c>
       <c r="J5">
-        <v>1.86080211178097</v>
+        <v>1.860802111780998</v>
       </c>
       <c r="K5">
-        <v>0.6547435478790717</v>
+        <v>0.6547435478790931</v>
       </c>
       <c r="L5">
-        <v>0.7904532596958234</v>
+        <v>0.7904532596958376</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2420714101509134</v>
+        <v>0.2420714101507855</v>
       </c>
       <c r="E6">
-        <v>0.1439917051145727</v>
+        <v>0.1439917051145905</v>
       </c>
       <c r="F6">
         <v>4.938699461850888</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06259262135338872</v>
+        <v>0.06259262135339316</v>
       </c>
       <c r="J6">
-        <v>1.845901782854781</v>
+        <v>1.845901782854725</v>
       </c>
       <c r="K6">
-        <v>0.6494934621956929</v>
+        <v>0.6494934621956716</v>
       </c>
       <c r="L6">
-        <v>0.7842710508341213</v>
+        <v>0.7842710508341142</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6409767269135216</v>
+        <v>0.6409767269134647</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2550127142870053</v>
+        <v>0.2550127142869059</v>
       </c>
       <c r="E7">
-        <v>0.1508575113064126</v>
+        <v>0.1508575113064374</v>
       </c>
       <c r="F7">
-        <v>5.175982449500026</v>
+        <v>5.175982449499998</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06418020824566728</v>
+        <v>0.06418020824568504</v>
       </c>
       <c r="J7">
         <v>1.949838608141363</v>
       </c>
       <c r="K7">
-        <v>0.6861306226740211</v>
+        <v>0.6861306226739856</v>
       </c>
       <c r="L7">
-        <v>0.8273933027882023</v>
+        <v>0.8273933027882094</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7794914539585136</v>
+        <v>0.7794914539584283</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3148903350116825</v>
+        <v>0.3148903350115688</v>
       </c>
       <c r="E8">
-        <v>0.1823360300608421</v>
+        <v>0.1823360300608599</v>
       </c>
       <c r="F8">
-        <v>6.271760222615484</v>
+        <v>6.271760222615399</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07147612959839211</v>
+        <v>0.07147612959840099</v>
       </c>
       <c r="J8">
-        <v>2.423535387135601</v>
+        <v>2.423535387135672</v>
       </c>
       <c r="K8">
-        <v>0.8535202700624467</v>
+        <v>0.8535202700624183</v>
       </c>
       <c r="L8">
         <v>1.023803043029083</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.068436706214328</v>
+        <v>1.068436706214811</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4471801470149899</v>
+        <v>0.4471801470150467</v>
       </c>
       <c r="E9">
-        <v>0.2510702296992342</v>
+        <v>0.2510702296991916</v>
       </c>
       <c r="F9">
-        <v>8.676738197390108</v>
+        <v>8.676738197390051</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08764600980107584</v>
+        <v>0.08764600980108561</v>
       </c>
       <c r="J9">
-        <v>3.435449634380063</v>
+        <v>3.435449634380049</v>
       </c>
       <c r="K9">
-        <v>1.212934443532561</v>
+        <v>1.212934443532589</v>
       </c>
       <c r="L9">
         <v>1.441840747901182</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.297844721098983</v>
+        <v>1.297844721099153</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.55999495596717</v>
+        <v>0.559994955966971</v>
       </c>
       <c r="E10">
-        <v>0.3096808570556604</v>
+        <v>0.3096808570556888</v>
       </c>
       <c r="F10">
         <v>10.70695511051855</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1018330931395806</v>
+        <v>0.1018330931395965</v>
       </c>
       <c r="J10">
         <v>4.268188564030396</v>
       </c>
       <c r="K10">
-        <v>1.510134195361445</v>
+        <v>1.510134195361431</v>
       </c>
       <c r="L10">
-        <v>1.783370054653702</v>
+        <v>1.78337005465373</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.408008462396481</v>
+        <v>1.408008462396623</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6169044785109179</v>
+        <v>0.6169044785111737</v>
       </c>
       <c r="E11">
-        <v>0.3394468702209466</v>
+        <v>0.3394468702209821</v>
       </c>
       <c r="F11">
-        <v>11.72315250763756</v>
+        <v>11.72315250763762</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1092077680196688</v>
+        <v>0.1092077680196724</v>
       </c>
       <c r="J11">
-        <v>4.679368438855363</v>
+        <v>4.679368438855334</v>
       </c>
       <c r="K11">
-        <v>1.657246305354647</v>
+        <v>1.657246305354619</v>
       </c>
       <c r="L11">
-        <v>1.950943381031081</v>
+        <v>1.950943381031067</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.450807312092309</v>
+        <v>1.450807312092081</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.639532073115106</v>
+        <v>0.6395320731150491</v>
       </c>
       <c r="E12">
-        <v>0.3513376076515087</v>
+        <v>0.3513376076515584</v>
       </c>
       <c r="F12">
         <v>12.12565295303432</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1121879012736358</v>
+        <v>0.1121879012736482</v>
       </c>
       <c r="J12">
-        <v>4.841339513843053</v>
+        <v>4.84133951384311</v>
       </c>
       <c r="K12">
-        <v>1.715251536197016</v>
+        <v>1.715251536197002</v>
       </c>
       <c r="L12">
-        <v>2.016736919643719</v>
+        <v>2.016736919643733</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.441536786945505</v>
+        <v>1.441536786945449</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6346053697968443</v>
+        <v>0.6346053697969865</v>
       </c>
       <c r="E13">
-        <v>0.3487456374778972</v>
+        <v>0.3487456374779114</v>
       </c>
       <c r="F13">
-        <v>12.03809264519572</v>
+        <v>12.03809264519595</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1115365916653879</v>
+        <v>0.1115365916654536</v>
       </c>
       <c r="J13">
-        <v>4.80614481474197</v>
+        <v>4.806144814741998</v>
       </c>
       <c r="K13">
-        <v>1.702645123679929</v>
+        <v>1.702645123679957</v>
       </c>
       <c r="L13">
-        <v>2.00245147059907</v>
+        <v>2.002451470599098</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411506130671768</v>
+        <v>1.411506130671626</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.61874252323571</v>
+        <v>0.6187425232363353</v>
       </c>
       <c r="E14">
-        <v>0.3404114703061154</v>
+        <v>0.3404114703060799</v>
       </c>
       <c r="F14">
         <v>11.75588093608678</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1094487845733827</v>
+        <v>0.1094487845734111</v>
       </c>
       <c r="J14">
         <v>4.692556803530522</v>
       </c>
       <c r="K14">
-        <v>1.661968237139433</v>
+        <v>1.661968237139462</v>
       </c>
       <c r="L14">
         <v>1.956305291209674</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6091762804719565</v>
+        <v>0.6091762804718428</v>
       </c>
       <c r="E15">
-        <v>0.3353935221832245</v>
+        <v>0.3353935221832955</v>
       </c>
       <c r="F15">
-        <v>11.58547946458532</v>
+        <v>11.58547946458555</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1081964051441204</v>
+        <v>0.1081964051441044</v>
       </c>
       <c r="J15">
-        <v>4.623855423931957</v>
+        <v>4.623855423931985</v>
       </c>
       <c r="K15">
-        <v>1.637372753942643</v>
+        <v>1.637372753942671</v>
       </c>
       <c r="L15">
-        <v>1.928364767906075</v>
+        <v>1.928364767906103</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.290781392681623</v>
+        <v>1.290781392681566</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5564093703724495</v>
+        <v>0.5564093703722222</v>
       </c>
       <c r="E16">
-        <v>0.3078112569563061</v>
+        <v>0.3078112569562492</v>
       </c>
       <c r="F16">
-        <v>10.64274645257211</v>
+        <v>10.64274645257206</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1013738703139637</v>
+        <v>0.1013738703139531</v>
       </c>
       <c r="J16">
-        <v>4.242092729685766</v>
+        <v>4.24209272968568</v>
       </c>
       <c r="K16">
-        <v>1.500804958906443</v>
+        <v>1.500804958906471</v>
       </c>
       <c r="L16">
-        <v>1.772709479945448</v>
+        <v>1.772709479945433</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.229552013423842</v>
+        <v>1.229552013423898</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5256349925554105</v>
+        <v>0.5256349925554957</v>
       </c>
       <c r="E17">
-        <v>0.2917880719549046</v>
+        <v>0.2917880719549188</v>
       </c>
       <c r="F17">
-        <v>10.09078154037084</v>
+        <v>10.09078154037078</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09745684214139061</v>
+        <v>0.09745684214140837</v>
       </c>
       <c r="J17">
         <v>4.017154743986822</v>
@@ -1012,7 +1012,7 @@
         <v>1.42042930131592</v>
       </c>
       <c r="L17">
-        <v>1.680699649979033</v>
+        <v>1.680699649979005</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.194862315723441</v>
+        <v>1.194862315723412</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5084395896529088</v>
+        <v>0.5084395896525393</v>
       </c>
       <c r="E18">
-        <v>0.2828507179785902</v>
+        <v>0.2828507179785404</v>
       </c>
       <c r="F18">
-        <v>9.781693375591033</v>
+        <v>9.781693375590862</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09528625051745276</v>
+        <v>0.09528625051739859</v>
       </c>
       <c r="J18">
-        <v>3.890699240876472</v>
+        <v>3.890699240876415</v>
       </c>
       <c r="K18">
-        <v>1.37527625392417</v>
+        <v>1.375276253924142</v>
       </c>
       <c r="L18">
-        <v>1.628883084074772</v>
+        <v>1.628883084074786</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.183201354774326</v>
+        <v>1.183201354774411</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5026975121599548</v>
+        <v>0.5026975121600969</v>
       </c>
       <c r="E19">
-        <v>0.2798683516550398</v>
+        <v>0.2798683516550611</v>
       </c>
       <c r="F19">
-        <v>9.678373122356192</v>
+        <v>9.678373122356277</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09456414460658014</v>
+        <v>0.09456414460655438</v>
       </c>
       <c r="J19">
-        <v>3.848345595099147</v>
+        <v>3.848345595099204</v>
       </c>
       <c r="K19">
-        <v>1.360158651297155</v>
+        <v>1.360158651297169</v>
       </c>
       <c r="L19">
-        <v>1.61151416248326</v>
+        <v>1.611514162483317</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5288570259810967</v>
+        <v>0.5288570259812957</v>
       </c>
       <c r="E20">
-        <v>0.2934638806121228</v>
+        <v>0.293463880612137</v>
       </c>
       <c r="F20">
-        <v>10.14864436494705</v>
+        <v>10.14864436494716</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09786496264626177</v>
+        <v>0.09786496264627065</v>
       </c>
       <c r="J20">
-        <v>4.040787448960629</v>
+        <v>4.040787448960572</v>
       </c>
       <c r="K20">
-        <v>1.428870408288731</v>
+        <v>1.428870408288745</v>
       </c>
       <c r="L20">
         <v>1.690376323180288</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.420295083920365</v>
+        <v>1.420295083920564</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6233698732778805</v>
+        <v>0.6233698732778521</v>
       </c>
       <c r="E21">
-        <v>0.3428408745119924</v>
+        <v>0.3428408745119214</v>
       </c>
       <c r="F21">
-        <v>11.83825011582474</v>
+        <v>11.83825011582502</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1100563744337961</v>
+        <v>0.1100563744338245</v>
       </c>
       <c r="J21">
-        <v>4.725734273056219</v>
+        <v>4.725734273056247</v>
       </c>
       <c r="K21">
-        <v>1.673847897033752</v>
+        <v>1.67384789703371</v>
       </c>
       <c r="L21">
-        <v>1.969790373051353</v>
+        <v>1.969790373051367</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.547228865195535</v>
+        <v>1.547228865195507</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.691635597431457</v>
+        <v>0.6916355974316843</v>
       </c>
       <c r="E22">
-        <v>0.3788617724432157</v>
+        <v>0.378861772443166</v>
       </c>
       <c r="F22">
-        <v>13.04903818526486</v>
+        <v>13.04903818526498</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1191633120111906</v>
+        <v>0.1191633120111852</v>
       </c>
       <c r="J22">
-        <v>5.211191391189374</v>
+        <v>5.211191391189345</v>
       </c>
       <c r="K22">
-        <v>1.847804938258776</v>
+        <v>1.84780493825879</v>
       </c>
       <c r="L22">
-        <v>2.166481488914073</v>
+        <v>2.166481488914044</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.478780644341128</v>
+        <v>1.478780644341157</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.654484754083569</v>
+        <v>0.6544847540837111</v>
       </c>
       <c r="E23">
-        <v>0.3592150451308811</v>
+        <v>0.3592150451309379</v>
       </c>
       <c r="F23">
-        <v>12.39113972887378</v>
+        <v>12.3911397288739</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.114173183913433</v>
+        <v>0.1141731839134419</v>
       </c>
       <c r="J23">
-        <v>4.947917154594137</v>
+        <v>4.947917154594194</v>
       </c>
       <c r="K23">
-        <v>1.753434632833475</v>
+        <v>1.753434632833503</v>
       </c>
       <c r="L23">
-        <v>2.059959160530525</v>
+        <v>2.059959160530511</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.233090860871215</v>
+        <v>1.233090860871329</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5273988150318587</v>
+        <v>0.5273988150316882</v>
       </c>
       <c r="E24">
-        <v>0.2927054041568908</v>
+        <v>0.2927054041568482</v>
       </c>
       <c r="F24">
-        <v>10.12245920883009</v>
+        <v>10.12245920883001</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.09768020173378922</v>
+        <v>0.09768020173376257</v>
       </c>
       <c r="J24">
-        <v>4.030094293445813</v>
+        <v>4.03009429344587</v>
       </c>
       <c r="K24">
         <v>1.425050935322716</v>
       </c>
       <c r="L24">
-        <v>1.685998172379314</v>
+        <v>1.6859981723793</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9878301952427648</v>
+        <v>0.9878301952425943</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4092291530137118</v>
+        <v>0.4092291530137402</v>
       </c>
       <c r="E25">
-        <v>0.2313976544575347</v>
+        <v>0.231397654457524</v>
       </c>
       <c r="F25">
-        <v>7.989323421277419</v>
+        <v>7.989323421277362</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0829733408742559</v>
+        <v>0.08297334087419994</v>
       </c>
       <c r="J25">
-        <v>3.149445703912463</v>
+        <v>3.149445703912392</v>
       </c>
       <c r="K25">
-        <v>1.111133323239713</v>
+        <v>1.111133323239727</v>
       </c>
       <c r="L25">
-        <v>1.323972222558609</v>
+        <v>1.323972222558595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8179997587335777</v>
+        <v>0.8155429417529092</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3319331396542964</v>
+        <v>0.3307247030361395</v>
       </c>
       <c r="E2">
-        <v>0.1912326336843684</v>
+        <v>0.181653003760669</v>
       </c>
       <c r="F2">
-        <v>6.58291142181173</v>
+        <v>6.573803097259713</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007400803258097246</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0735471237916725</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.556395630374453</v>
+        <v>0.06959997222310399</v>
       </c>
       <c r="K2">
-        <v>0.9005785484304738</v>
+        <v>2.517079980718052</v>
       </c>
       <c r="L2">
-        <v>1.078831274778857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.889402974717413</v>
+      </c>
+      <c r="M2">
+        <v>1.069126105292838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7074780222597781</v>
+        <v>0.7058215139203696</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.283484362888899</v>
+        <v>0.2833938890003651</v>
       </c>
       <c r="E3">
-        <v>0.165876417462318</v>
+        <v>0.1570053965000184</v>
       </c>
       <c r="F3">
-        <v>5.697489861520864</v>
+        <v>5.702504908320094</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007567918224489778</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06765634514921448</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.176488909622194</v>
+        <v>0.06388105905495323</v>
       </c>
       <c r="K3">
-        <v>0.7661413649713609</v>
+        <v>2.143191758588088</v>
       </c>
       <c r="L3">
-        <v>0.9214030484386555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.7569626975022601</v>
+      </c>
+      <c r="M3">
+        <v>0.9136839254425411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6413366957617086</v>
+        <v>0.6401573559530505</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2551654730632293</v>
+        <v>0.2557363790269278</v>
       </c>
       <c r="E4">
-        <v>0.1509383943254576</v>
+        <v>0.1424856573009947</v>
       </c>
       <c r="F4">
-        <v>5.178782501071566</v>
+        <v>5.192085893697083</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007671457823957902</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06419891416842471</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.951061934792605</v>
+        <v>0.06052330096032676</v>
       </c>
       <c r="K4">
-        <v>0.6865620484449266</v>
+        <v>1.92134371247603</v>
       </c>
       <c r="L4">
-        <v>0.8279008194089883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.6785664325656526</v>
+      </c>
+      <c r="M4">
+        <v>0.8213610407818095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6147490248760334</v>
+        <v>0.6137617438172356</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2439220791232657</v>
+        <v>0.2447580536813803</v>
       </c>
       <c r="E5">
-        <v>0.1449752626810721</v>
+        <v>0.1366900192863305</v>
       </c>
       <c r="F5">
-        <v>4.972640276918952</v>
+        <v>4.989250810556427</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007713980752249934</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06282002732475522</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.860802111780998</v>
+        <v>0.05918395542853183</v>
       </c>
       <c r="K5">
-        <v>0.6547435478790931</v>
+        <v>1.832522812752785</v>
       </c>
       <c r="L5">
-        <v>0.7904532596958376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6472225819353952</v>
+      </c>
+      <c r="M5">
+        <v>0.7843872310109461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6103544581594349</v>
+        <v>0.6093989537728248</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2420714101507855</v>
+        <v>0.2429511771792363</v>
       </c>
       <c r="E6">
-        <v>0.1439917051145905</v>
+        <v>0.135734126878166</v>
       </c>
       <c r="F6">
-        <v>4.938699461850888</v>
+        <v>4.955855545582807</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007721064083561715</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.06259262135339316</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.845901782854725</v>
+        <v>0.05896306013893859</v>
       </c>
       <c r="K6">
-        <v>0.6494934621956716</v>
+        <v>1.81786048252421</v>
       </c>
       <c r="L6">
-        <v>0.7842710508341142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6420509461616604</v>
+      </c>
+      <c r="M6">
+        <v>0.7782833561911389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6409767269134647</v>
+        <v>0.6397999855771559</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2550127142869059</v>
+        <v>0.2555872109128217</v>
       </c>
       <c r="E7">
-        <v>0.1508575113064374</v>
+        <v>0.1424070436772595</v>
       </c>
       <c r="F7">
-        <v>5.175982449499998</v>
+        <v>5.189330698252121</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007672029852297176</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06418020824568504</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.949838608141363</v>
+        <v>0.06050513220591025</v>
       </c>
       <c r="K7">
-        <v>0.6861306226739856</v>
+        <v>1.920139859330291</v>
       </c>
       <c r="L7">
-        <v>0.8273933027882094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.6781414343465997</v>
+      </c>
+      <c r="M7">
+        <v>0.8208599372558751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7794914539584283</v>
+        <v>0.7773143384342802</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3148903350115688</v>
+        <v>0.3140738238648595</v>
       </c>
       <c r="E8">
-        <v>0.1823360300608599</v>
+        <v>0.1730050758036086</v>
       </c>
       <c r="F8">
-        <v>6.271760222615399</v>
+        <v>6.267618830439943</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007458294160900245</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07147612959840099</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2.423535387135672</v>
+        <v>0.06758972201371005</v>
       </c>
       <c r="K8">
-        <v>0.8535202700624183</v>
+        <v>2.386325712194875</v>
       </c>
       <c r="L8">
-        <v>1.023803043029083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.8430444561394239</v>
+      </c>
+      <c r="M8">
+        <v>1.014793182573399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.068436706214811</v>
+        <v>1.06411222795694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4471801470150467</v>
+        <v>0.4433237859965402</v>
       </c>
       <c r="E9">
-        <v>0.2510702296991916</v>
+        <v>0.2398009620747601</v>
       </c>
       <c r="F9">
-        <v>8.676738197390051</v>
+        <v>8.633660561516308</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000704117764262743</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08764600980108561</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.435449634380049</v>
+        <v>0.08327394742495553</v>
       </c>
       <c r="K9">
-        <v>1.212934443532589</v>
+        <v>3.38198408271046</v>
       </c>
       <c r="L9">
-        <v>1.441840747901182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.197032310084097</v>
+      </c>
+      <c r="M9">
+        <v>1.427456441371405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.297844721099153</v>
+        <v>1.2916783530587</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.559994955966971</v>
+        <v>0.5534804087303939</v>
       </c>
       <c r="E10">
-        <v>0.3096808570556888</v>
+        <v>0.2966939875937555</v>
       </c>
       <c r="F10">
-        <v>10.70695511051855</v>
+        <v>10.62912489078434</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006726113920682572</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1018330931395965</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.268188564030396</v>
+        <v>0.09700800135532006</v>
       </c>
       <c r="K10">
-        <v>1.510134195361431</v>
+        <v>4.200587725296543</v>
       </c>
       <c r="L10">
-        <v>1.78337005465373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.489474031134705</v>
+      </c>
+      <c r="M10">
+        <v>1.764303782967389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.408008462396623</v>
+        <v>1.400887966368458</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6169044785111737</v>
+        <v>0.6089973076028912</v>
       </c>
       <c r="E11">
-        <v>0.3394468702209821</v>
+        <v>0.3255499373558379</v>
       </c>
       <c r="F11">
-        <v>11.72315250763762</v>
+        <v>11.62688339166823</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006577672318675807</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1092077680196724</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.679368438855334</v>
+        <v>0.1041345053417775</v>
       </c>
       <c r="K11">
-        <v>1.657246305354619</v>
+        <v>4.604365441319942</v>
       </c>
       <c r="L11">
-        <v>1.950943381031067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.634082795844222</v>
+      </c>
+      <c r="M11">
+        <v>1.929424135994523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.450807312092081</v>
+        <v>1.443300410605985</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6395320731150491</v>
+        <v>0.6310582168334804</v>
       </c>
       <c r="E12">
-        <v>0.3513376076515584</v>
+        <v>0.3370681902731079</v>
       </c>
       <c r="F12">
-        <v>12.12565295303432</v>
+        <v>12.0218385770184</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006520326981738689</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1121879012736482</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.84133951384311</v>
+        <v>0.1070115229473565</v>
       </c>
       <c r="K12">
-        <v>1.715251536197002</v>
+        <v>4.763322606558148</v>
       </c>
       <c r="L12">
-        <v>2.016736919643733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.691066764514787</v>
+      </c>
+      <c r="M12">
+        <v>1.994218863433346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.441536786945449</v>
+        <v>1.434114404479431</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6346053697969865</v>
+        <v>0.6262555917873271</v>
       </c>
       <c r="E13">
-        <v>0.3487456374779114</v>
+        <v>0.3345578863832941</v>
       </c>
       <c r="F13">
-        <v>12.03809264519595</v>
+        <v>11.9359323532513</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006532735745170507</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1115365916654536</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.806144814741998</v>
+        <v>0.1063828959127058</v>
       </c>
       <c r="K13">
-        <v>1.702645123679957</v>
+        <v>4.728787947121788</v>
       </c>
       <c r="L13">
-        <v>2.002451470599098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.678684098470555</v>
+      </c>
+      <c r="M13">
+        <v>1.980152150828289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411506130671626</v>
+        <v>1.404354412065004</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6187425232363353</v>
+        <v>0.6107896181816272</v>
       </c>
       <c r="E14">
-        <v>0.3404114703060799</v>
+        <v>0.3264845233763012</v>
       </c>
       <c r="F14">
-        <v>11.75588093608678</v>
+        <v>11.65900376337049</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000657298002554713</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1094487845734111</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.692556803530522</v>
+        <v>0.1043672455618871</v>
       </c>
       <c r="K14">
-        <v>1.661968237139462</v>
+        <v>4.61731062263928</v>
       </c>
       <c r="L14">
-        <v>1.956305291209674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.638722365605361</v>
+      </c>
+      <c r="M14">
+        <v>1.934705454922778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.39326123359416</v>
+        <v>1.386271711578047</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6091762804718428</v>
+        <v>0.6014608488491433</v>
       </c>
       <c r="E15">
-        <v>0.3353935221832955</v>
+        <v>0.3216223331103762</v>
       </c>
       <c r="F15">
-        <v>11.58547946458555</v>
+        <v>11.4917579052626</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006597468813539687</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1081964051441044</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.623855423931985</v>
+        <v>0.1031577535189019</v>
       </c>
       <c r="K15">
-        <v>1.637372753942671</v>
+        <v>4.549871878330322</v>
       </c>
       <c r="L15">
-        <v>1.928364767906103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.614554435792229</v>
+      </c>
+      <c r="M15">
+        <v>1.907183369710921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.290781392681566</v>
+        <v>1.284674416407427</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5564093703722222</v>
+        <v>0.5499811794454388</v>
       </c>
       <c r="E16">
-        <v>0.3078112569562492</v>
+        <v>0.294880578183033</v>
       </c>
       <c r="F16">
-        <v>10.64274645257206</v>
+        <v>10.56605460339443</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006735681130230993</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1013738703139531</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.24209272968568</v>
+        <v>0.09656392187356566</v>
       </c>
       <c r="K16">
-        <v>1.500804958906471</v>
+        <v>4.174950800291725</v>
       </c>
       <c r="L16">
-        <v>1.772709479945433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.480299749947676</v>
+      </c>
+      <c r="M16">
+        <v>1.753795270731359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.229552013423898</v>
+        <v>1.223951918902287</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5256349925554957</v>
+        <v>0.5199421469271783</v>
       </c>
       <c r="E17">
-        <v>0.2917880719549188</v>
+        <v>0.2793347652293505</v>
       </c>
       <c r="F17">
-        <v>10.09078154037078</v>
+        <v>10.02375851535359</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006818918042559679</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09745684214140837</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.017154743986822</v>
+        <v>0.09277468057963834</v>
       </c>
       <c r="K17">
-        <v>1.42042930131592</v>
+        <v>3.953920731934744</v>
       </c>
       <c r="L17">
-        <v>1.680699649979005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.401242400732812</v>
+      </c>
+      <c r="M17">
+        <v>1.663080238453418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.194862315723412</v>
+        <v>1.189543498290107</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5084395896525393</v>
+        <v>0.5031534728346116</v>
       </c>
       <c r="E18">
-        <v>0.2828507179785404</v>
+        <v>0.2706606217040814</v>
       </c>
       <c r="F18">
-        <v>9.781693375590862</v>
+        <v>9.719998921062199</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000686634227391044</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09528625051739859</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.890699240876415</v>
+        <v>0.09067387714856334</v>
       </c>
       <c r="K18">
-        <v>1.375276253924142</v>
+        <v>3.829627201550068</v>
       </c>
       <c r="L18">
-        <v>1.628883084074786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.356817689301721</v>
+      </c>
+      <c r="M18">
+        <v>1.611979880022332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.183201354774411</v>
+        <v>1.177976201905722</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5026975121600969</v>
+        <v>0.497546618375651</v>
       </c>
       <c r="E19">
-        <v>0.2798683516550611</v>
+        <v>0.2677656361364171</v>
       </c>
       <c r="F19">
-        <v>9.678373122356277</v>
+        <v>9.618447105705854</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006882331701232525</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09456414460655438</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.848345595099204</v>
+        <v>0.08997483290480446</v>
       </c>
       <c r="K19">
-        <v>1.360158651297169</v>
+        <v>3.787992460490386</v>
       </c>
       <c r="L19">
-        <v>1.611514162483317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.341942112149468</v>
+      </c>
+      <c r="M19">
+        <v>1.594849091850392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.236013821183548</v>
+        <v>1.230360878714919</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5288570259812957</v>
+        <v>0.5230876544831062</v>
       </c>
       <c r="E20">
-        <v>0.293463880612137</v>
+        <v>0.2809609857354332</v>
       </c>
       <c r="F20">
-        <v>10.14864436494716</v>
+        <v>10.08061721124886</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000681010648957668</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09786496264627065</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.040787448960572</v>
+        <v>0.09316959949138592</v>
       </c>
       <c r="K20">
-        <v>1.428870408288745</v>
+        <v>3.977146712220787</v>
       </c>
       <c r="L20">
-        <v>1.690376323180288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.40954640781969</v>
+      </c>
+      <c r="M20">
+        <v>1.672622163994745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.420295083920564</v>
+        <v>1.413064635340731</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6233698732778521</v>
+        <v>0.6153016024681222</v>
       </c>
       <c r="E21">
-        <v>0.3428408745119214</v>
+        <v>0.3288381795596251</v>
       </c>
       <c r="F21">
-        <v>11.83825011582502</v>
+        <v>11.73983840962239</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006561194001071469</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1100563744338245</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.725734273056247</v>
+        <v>0.1049539225297025</v>
       </c>
       <c r="K21">
-        <v>1.67384789703371</v>
+        <v>4.649874616238975</v>
       </c>
       <c r="L21">
-        <v>1.969790373051367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.650394219672961</v>
+      </c>
+      <c r="M21">
+        <v>1.947987230024509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.547228865195507</v>
+        <v>1.538813289463405</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6916355974316843</v>
+        <v>0.6818235213198989</v>
       </c>
       <c r="E22">
-        <v>0.378861772443166</v>
+        <v>0.3637076096859246</v>
       </c>
       <c r="F22">
-        <v>13.04903818526498</v>
+        <v>12.92731463851584</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006391595845904865</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1191633120111852</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.211191391189345</v>
+        <v>0.1137385812401845</v>
       </c>
       <c r="K22">
-        <v>1.84780493825879</v>
+        <v>5.126049816560084</v>
       </c>
       <c r="L22">
-        <v>2.166481488914044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.821201892721717</v>
+      </c>
+      <c r="M22">
+        <v>2.141602465193301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.478780644341157</v>
+        <v>1.471015824988484</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6544847540837111</v>
+        <v>0.6456318349769958</v>
       </c>
       <c r="E23">
-        <v>0.3592150451309379</v>
+        <v>0.3446957524997458</v>
       </c>
       <c r="F23">
-        <v>12.3911397288739</v>
+        <v>12.28226519404626</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006482922125930759</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1141731839134419</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.947917154594194</v>
+        <v>0.1089271462699006</v>
       </c>
       <c r="K23">
-        <v>1.753434632833503</v>
+        <v>4.867883287151898</v>
       </c>
       <c r="L23">
-        <v>2.059959160530511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.728565822445077</v>
+      </c>
+      <c r="M23">
+        <v>2.036772694620495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.233090860871329</v>
+        <v>1.227461841969301</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5273988150316882</v>
+        <v>0.5216640899440108</v>
       </c>
       <c r="E24">
-        <v>0.2927054041568482</v>
+        <v>0.280224962459279</v>
       </c>
       <c r="F24">
-        <v>10.12245920883001</v>
+        <v>10.05488672624685</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006814091502223906</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.09768020173376257</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.03009429344587</v>
+        <v>0.09299081827017197</v>
       </c>
       <c r="K24">
-        <v>1.425050935322716</v>
+        <v>3.966637696129169</v>
       </c>
       <c r="L24">
-        <v>1.6859981723793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.40578900819412</v>
+      </c>
+      <c r="M24">
+        <v>1.668305018842929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9878301952425943</v>
+        <v>0.984118824539479</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4092291530137402</v>
+        <v>0.4062477133008997</v>
       </c>
       <c r="E25">
-        <v>0.231397654457524</v>
+        <v>0.2206887346059325</v>
       </c>
       <c r="F25">
-        <v>7.989323421277362</v>
+        <v>7.957546017149213</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007154665752215632</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.08297334087419994</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3.149445703912392</v>
+        <v>0.07874452790711306</v>
       </c>
       <c r="K25">
-        <v>1.111133323239727</v>
+        <v>3.100643642131246</v>
       </c>
       <c r="L25">
-        <v>1.323972222558595</v>
+        <v>1.096793428570109</v>
+      </c>
+      <c r="M25">
+        <v>1.311131227573171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8155429417529092</v>
+        <v>1.711060971848838</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3307247030361395</v>
+        <v>0.05856735576204386</v>
       </c>
       <c r="E2">
-        <v>0.181653003760669</v>
+        <v>1.658756608546184</v>
       </c>
       <c r="F2">
-        <v>6.573803097259713</v>
+        <v>3.175339288095728</v>
       </c>
       <c r="G2">
-        <v>0.0007400803258097246</v>
+        <v>0.0007236722971036578</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06959997222310399</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.517079980718052</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.889402974717413</v>
+        <v>0.8790771289563963</v>
       </c>
       <c r="M2">
-        <v>1.069126105292838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5963140882634193</v>
+      </c>
+      <c r="N2">
+        <v>1.039519118634225</v>
+      </c>
+      <c r="O2">
+        <v>2.618751075823113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7058215139203696</v>
+        <v>1.502045507840108</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2833938890003651</v>
+        <v>0.05102598959142313</v>
       </c>
       <c r="E3">
-        <v>0.1570053965000184</v>
+        <v>1.454132577350052</v>
       </c>
       <c r="F3">
-        <v>5.702504908320094</v>
+        <v>2.741473229394728</v>
       </c>
       <c r="G3">
-        <v>0.0007567918224489778</v>
+        <v>0.0007356667306524341</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06388105905495323</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.143191758588088</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7569626975022601</v>
+        <v>0.7576312248677937</v>
       </c>
       <c r="M3">
-        <v>0.9136839254425411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5179384836649632</v>
+      </c>
+      <c r="N3">
+        <v>1.08176737648818</v>
+      </c>
+      <c r="O3">
+        <v>2.261639163291193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6401573559530505</v>
+        <v>1.375946663216524</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2557363790269278</v>
+        <v>0.04669077174285263</v>
       </c>
       <c r="E4">
-        <v>0.1424856573009947</v>
+        <v>1.33064764377194</v>
       </c>
       <c r="F4">
-        <v>5.192085893697083</v>
+        <v>2.484828641011319</v>
       </c>
       <c r="G4">
-        <v>0.0007671457823957902</v>
+        <v>0.0007431689156449596</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06052330096032676</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.92134371247603</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6785664325656526</v>
+        <v>0.6843488912512328</v>
       </c>
       <c r="M4">
-        <v>0.8213610407818095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4706373643326742</v>
+      </c>
+      <c r="N4">
+        <v>1.109211928183477</v>
+      </c>
+      <c r="O4">
+        <v>2.050628634656377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6137617438172356</v>
+        <v>1.325051510021666</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2447580536813803</v>
+        <v>0.04498818818547079</v>
       </c>
       <c r="E5">
-        <v>0.1366900192863305</v>
+        <v>1.280756315734806</v>
       </c>
       <c r="F5">
-        <v>4.989250810556427</v>
+        <v>2.382347315538695</v>
       </c>
       <c r="G5">
-        <v>0.0007713980752249934</v>
+        <v>0.0007462649441126651</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05918395542853183</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.832522812752785</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6472225819353952</v>
+        <v>0.6547559650950348</v>
       </c>
       <c r="M5">
-        <v>0.7843872310109461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4515383693749015</v>
+      </c>
+      <c r="N5">
+        <v>1.120766928583166</v>
+      </c>
+      <c r="O5">
+        <v>1.966422263646521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6093989537728248</v>
+        <v>1.316628122579033</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2429511771792363</v>
+        <v>0.04470907066208696</v>
       </c>
       <c r="E6">
-        <v>0.135734126878166</v>
+        <v>1.272494861301965</v>
       </c>
       <c r="F6">
-        <v>4.955855545582807</v>
+        <v>2.365448004164108</v>
       </c>
       <c r="G6">
-        <v>0.0007721064083561715</v>
+        <v>0.0007467814969000944</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05896306013893859</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.81786048252421</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6420509461616604</v>
+        <v>0.649856965681181</v>
       </c>
       <c r="M6">
-        <v>0.7782833561911389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4483768452154919</v>
+      </c>
+      <c r="N6">
+        <v>1.122707843507094</v>
+      </c>
+      <c r="O6">
+        <v>1.95253955403382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6397999855771559</v>
+        <v>1.375258373838818</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2555872109128217</v>
+        <v>0.04666756327921462</v>
       </c>
       <c r="E7">
-        <v>0.1424070436772595</v>
+        <v>1.329973188978727</v>
       </c>
       <c r="F7">
-        <v>5.189330698252121</v>
+        <v>2.483438455768095</v>
       </c>
       <c r="G7">
-        <v>0.0007672029852297176</v>
+        <v>0.0007432105073973315</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06050513220591025</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.920139859330291</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6781414343465997</v>
+        <v>0.683948762339071</v>
       </c>
       <c r="M7">
-        <v>0.8208599372558751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.47037911090937</v>
+      </c>
+      <c r="N7">
+        <v>1.109366269332888</v>
+      </c>
+      <c r="O7">
+        <v>2.049486145732047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7773143384342802</v>
+        <v>1.638482527604594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3140738238648595</v>
+        <v>0.05589926425074054</v>
       </c>
       <c r="E8">
-        <v>0.1730050758036086</v>
+        <v>1.587682419376193</v>
       </c>
       <c r="F8">
-        <v>6.267618830439943</v>
+        <v>3.02349479964326</v>
       </c>
       <c r="G8">
-        <v>0.0007458294160900245</v>
+        <v>0.0007277821457307473</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06758972201371005</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.386325712194875</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8430444561394239</v>
+        <v>0.8369016214893463</v>
       </c>
       <c r="M8">
-        <v>1.014793182573399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5691004091069232</v>
+      </c>
+      <c r="N8">
+        <v>1.053769813884003</v>
+      </c>
+      <c r="O8">
+        <v>2.493716105314107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.06411222795694</v>
+        <v>2.176120734452638</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4433237859965402</v>
+        <v>0.07688727181018606</v>
       </c>
       <c r="E9">
-        <v>0.2398009620747601</v>
+        <v>2.116194579265184</v>
       </c>
       <c r="F9">
-        <v>8.633660561516308</v>
+        <v>4.178306881376074</v>
       </c>
       <c r="G9">
-        <v>0.000704117764262743</v>
+        <v>0.0006983952970422627</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08327394742495553</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3.38198408271046</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.197032310084097</v>
+        <v>1.149843097677604</v>
       </c>
       <c r="M9">
-        <v>1.427456441371405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7707829282188712</v>
+      </c>
+      <c r="N9">
+        <v>0.957012260682248</v>
+      </c>
+      <c r="O9">
+        <v>3.44591019606338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.2916783530587</v>
+        <v>2.590273277945357</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5534804087303939</v>
+        <v>0.09498925687545068</v>
       </c>
       <c r="E10">
-        <v>0.2966939875937555</v>
+        <v>2.529023414516857</v>
       </c>
       <c r="F10">
-        <v>10.62912489078434</v>
+        <v>5.11606266499922</v>
       </c>
       <c r="G10">
-        <v>0.0006726113920682572</v>
+        <v>0.0006769588413730527</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09700800135532006</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4.200587725296543</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.489474031134705</v>
+        <v>1.392370541932706</v>
       </c>
       <c r="M10">
-        <v>1.764303782967389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9264909543306032</v>
+      </c>
+      <c r="N10">
+        <v>0.8938855150910641</v>
+      </c>
+      <c r="O10">
+        <v>4.221055228630718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.400887966368458</v>
+        <v>2.784520433897967</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6089973076028912</v>
+        <v>0.1040778026849409</v>
       </c>
       <c r="E11">
-        <v>0.3255499373558379</v>
+        <v>2.725251348193169</v>
       </c>
       <c r="F11">
-        <v>11.62688339166823</v>
+        <v>5.570980597062004</v>
       </c>
       <c r="G11">
-        <v>0.0006577672318675807</v>
+        <v>0.0006671322964822106</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1041345053417775</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.604365441319942</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.634082795844222</v>
+        <v>1.506777205487992</v>
       </c>
       <c r="M11">
-        <v>1.929424135994523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.9996929776460988</v>
+      </c>
+      <c r="N11">
+        <v>0.8670070674774735</v>
+      </c>
+      <c r="O11">
+        <v>4.597640724039451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.443300410605985</v>
+        <v>2.859091239886823</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6310582168334804</v>
+        <v>0.1076717938739051</v>
       </c>
       <c r="E12">
-        <v>0.3370681902731079</v>
+        <v>2.801110230141234</v>
       </c>
       <c r="F12">
-        <v>12.0218385770184</v>
+        <v>5.748276971148243</v>
       </c>
       <c r="G12">
-        <v>0.0006520326981738689</v>
+        <v>0.0006633888654152489</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1070115229473565</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.763322606558148</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.691066764514787</v>
+        <v>1.55082872532526</v>
       </c>
       <c r="M12">
-        <v>1.994218863433346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.027830064393477</v>
+      </c>
+      <c r="N12">
+        <v>0.8571027593088019</v>
+      </c>
+      <c r="O12">
+        <v>4.744501144450766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.434114404479431</v>
+        <v>2.842982865526096</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6262555917873271</v>
+        <v>0.1068904363369967</v>
       </c>
       <c r="E13">
-        <v>0.3345578863832941</v>
+        <v>2.784697303506491</v>
       </c>
       <c r="F13">
-        <v>11.9359323532513</v>
+        <v>5.709851717216736</v>
       </c>
       <c r="G13">
-        <v>0.0006532735745170507</v>
+        <v>0.000664196287072915</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1063828959127058</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4.728787947121788</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.678684098470555</v>
+        <v>1.541306451949026</v>
       </c>
       <c r="M13">
-        <v>1.980152150828289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.021750295488786</v>
+      </c>
+      <c r="N13">
+        <v>0.8592234907795699</v>
+      </c>
+      <c r="O13">
+        <v>4.71266789834803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.404354412065004</v>
+        <v>2.790633987984847</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6107896181816272</v>
+        <v>0.1043702332566809</v>
       </c>
       <c r="E14">
-        <v>0.3264845233763012</v>
+        <v>2.731458951885955</v>
       </c>
       <c r="F14">
-        <v>11.65900376337049</v>
+        <v>5.585459816706162</v>
       </c>
       <c r="G14">
-        <v>0.000657298002554713</v>
+        <v>0.0006668248455685322</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1043672455618871</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4.61731062263928</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.638722365605361</v>
+        <v>1.510385830403152</v>
       </c>
       <c r="M14">
-        <v>1.934705454922778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.001998977786016</v>
+      </c>
+      <c r="N14">
+        <v>0.8661866879685221</v>
+      </c>
+      <c r="O14">
+        <v>4.609632412754081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.386271711578047</v>
+        <v>2.758706521133547</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6014608488491433</v>
+        <v>0.1028473799243912</v>
       </c>
       <c r="E15">
-        <v>0.3216223331103762</v>
+        <v>2.699062536057923</v>
       </c>
       <c r="F15">
-        <v>11.4917579052626</v>
+        <v>5.509953236955511</v>
       </c>
       <c r="G15">
-        <v>0.0006597468813539687</v>
+        <v>0.00066843161634471</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1031577535189019</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.549871878330322</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.614554435792229</v>
+        <v>1.491545635825844</v>
       </c>
       <c r="M15">
-        <v>1.907183369710921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9899575848265059</v>
+      </c>
+      <c r="N15">
+        <v>0.8704878134956147</v>
+      </c>
+      <c r="O15">
+        <v>4.547101655891709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.284674416407427</v>
+        <v>2.577710431267519</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5499811794454388</v>
+        <v>0.09441484913174492</v>
       </c>
       <c r="E16">
-        <v>0.294880578183033</v>
+        <v>2.516396222078995</v>
       </c>
       <c r="F16">
-        <v>10.56605460339443</v>
+        <v>5.08697953904823</v>
       </c>
       <c r="G16">
-        <v>0.0006735681130230993</v>
+        <v>0.0006775985922069462</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09656392187356566</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4.174950800291725</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.480299749947676</v>
+        <v>1.384987292471294</v>
       </c>
       <c r="M16">
-        <v>1.753795270731359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9217608783106854</v>
+      </c>
+      <c r="N16">
+        <v>0.8956798977582849</v>
+      </c>
+      <c r="O16">
+        <v>4.196991811106244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.223951918902287</v>
+        <v>2.468285395124838</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5199421469271783</v>
+        <v>0.08947936280573288</v>
       </c>
       <c r="E17">
-        <v>0.2793347652293505</v>
+        <v>2.406711788368554</v>
       </c>
       <c r="F17">
-        <v>10.02375851535359</v>
+        <v>4.835368898643196</v>
       </c>
       <c r="G17">
-        <v>0.0006818918042559679</v>
+        <v>0.0006831956041008757</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09277468057963834</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3.953920731934744</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.401242400732812</v>
+        <v>1.3207534522993</v>
       </c>
       <c r="M17">
-        <v>1.663080238453418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8805808167133193</v>
+      </c>
+      <c r="N17">
+        <v>0.9116120743896374</v>
+      </c>
+      <c r="O17">
+        <v>3.988869867137822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.189543498290107</v>
+        <v>2.405885263413495</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5031534728346116</v>
+        <v>0.08671884438997068</v>
       </c>
       <c r="E18">
-        <v>0.2706606217040814</v>
+        <v>2.344393159926838</v>
       </c>
       <c r="F18">
-        <v>9.719998921062199</v>
+        <v>4.693247361387705</v>
       </c>
       <c r="G18">
-        <v>0.000686634227391044</v>
+        <v>0.0006864086227108665</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09067387714856334</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3.829627201550068</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.356817689301721</v>
+        <v>1.284181797211488</v>
       </c>
       <c r="M18">
-        <v>1.611979880022332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8571127955316982</v>
+      </c>
+      <c r="N18">
+        <v>0.9209482742471309</v>
+      </c>
+      <c r="O18">
+        <v>3.871361895977913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.177976201905722</v>
+        <v>2.384845369720324</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.497546618375651</v>
+        <v>0.08579682893115148</v>
       </c>
       <c r="E19">
-        <v>0.2677656361364171</v>
+        <v>2.323416183852132</v>
       </c>
       <c r="F19">
-        <v>9.618447105705854</v>
+        <v>4.64554799285645</v>
       </c>
       <c r="G19">
-        <v>0.0006882331701232525</v>
+        <v>0.0006874957353322536</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08997483290480446</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3.787992460490386</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.341942112149468</v>
+        <v>1.271859665144035</v>
       </c>
       <c r="M19">
-        <v>1.594849091850392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8492022360122675</v>
+      </c>
+      <c r="N19">
+        <v>0.9241386740759836</v>
+      </c>
+      <c r="O19">
+        <v>3.831931504450523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.230360878714919</v>
+        <v>2.479877025567077</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5230876544831062</v>
+        <v>0.08999646406161332</v>
       </c>
       <c r="E20">
-        <v>0.2809609857354332</v>
+        <v>2.418306104395612</v>
       </c>
       <c r="F20">
-        <v>10.08061721124886</v>
+        <v>4.861878133063612</v>
       </c>
       <c r="G20">
-        <v>0.000681010648957668</v>
+        <v>0.0006826005133125437</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09316959949138592</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3.977146712220787</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.40954640781969</v>
+        <v>1.327551624248741</v>
       </c>
       <c r="M20">
-        <v>1.672622163994745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8849414749105051</v>
+      </c>
+      <c r="N20">
+        <v>0.9098981511147528</v>
+      </c>
+      <c r="O20">
+        <v>4.010792008861131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.413064635340731</v>
+        <v>2.805981059015835</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6153016024681222</v>
+        <v>0.105106070577115</v>
       </c>
       <c r="E21">
-        <v>0.3288381795596251</v>
+        <v>2.747051096720085</v>
       </c>
       <c r="F21">
-        <v>11.73983840962239</v>
+        <v>5.621851519627683</v>
       </c>
       <c r="G21">
-        <v>0.0006561194001071469</v>
+        <v>0.000666053485881966</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1049539225297025</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4.649874616238975</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.650394219672961</v>
+        <v>1.519446914696601</v>
       </c>
       <c r="M21">
-        <v>1.947987230024509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.007788408816694</v>
+      </c>
+      <c r="N21">
+        <v>0.8641339156946941</v>
+      </c>
+      <c r="O21">
+        <v>4.639773535585448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.538813289463405</v>
+        <v>3.025124967917975</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6818235213198989</v>
+        <v>0.1158886857791117</v>
       </c>
       <c r="E22">
-        <v>0.3637076096859246</v>
+        <v>2.971175356717353</v>
       </c>
       <c r="F22">
-        <v>12.92731463851584</v>
+        <v>6.148470074648714</v>
       </c>
       <c r="G22">
-        <v>0.0006391595845904865</v>
+        <v>0.0006551013658161383</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1137385812401845</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>5.126049816560084</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.821201892721717</v>
+        <v>1.649197096108054</v>
       </c>
       <c r="M22">
-        <v>2.141602465193301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.09055536270612</v>
+      </c>
+      <c r="N22">
+        <v>0.8358256835998787</v>
+      </c>
+      <c r="O22">
+        <v>5.076180389893523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.471015824988484</v>
+        <v>2.907546370774185</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6456318349769958</v>
+        <v>0.110038924066302</v>
       </c>
       <c r="E23">
-        <v>0.3446957524997458</v>
+        <v>2.850571366662052</v>
       </c>
       <c r="F23">
-        <v>12.28226519404626</v>
+        <v>5.864287007413822</v>
       </c>
       <c r="G23">
-        <v>0.0006482922125930759</v>
+        <v>0.0006609638926119429</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1089271462699006</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4.867883287151898</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.728565822445077</v>
+        <v>1.579494570796015</v>
       </c>
       <c r="M23">
-        <v>2.036772694620495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.046124420315508</v>
+      </c>
+      <c r="N23">
+        <v>0.8507846302752711</v>
+      </c>
+      <c r="O23">
+        <v>4.840623666350183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.227461841969301</v>
+        <v>2.474634874165588</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5216640899440108</v>
+        <v>0.08976244500544084</v>
       </c>
       <c r="E24">
-        <v>0.280224962459279</v>
+        <v>2.413062032308559</v>
       </c>
       <c r="F24">
-        <v>10.05488672624685</v>
+        <v>4.849885488197231</v>
       </c>
       <c r="G24">
-        <v>0.0006814091502223906</v>
+        <v>0.000682869567861581</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09299081827017197</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3.966637696129169</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.40578900819412</v>
+        <v>1.324477068247262</v>
       </c>
       <c r="M24">
-        <v>1.668305018842929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8829693822895308</v>
+      </c>
+      <c r="N24">
+        <v>0.91067246655453</v>
+      </c>
+      <c r="O24">
+        <v>4.000874388632042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.984118824539479</v>
+        <v>2.027808220087309</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4062477133008997</v>
+        <v>0.0708159744222101</v>
       </c>
       <c r="E25">
-        <v>0.2206887346059325</v>
+        <v>1.96978978339412</v>
       </c>
       <c r="F25">
-        <v>7.957546017149213</v>
+        <v>3.852789831137756</v>
       </c>
       <c r="G25">
-        <v>0.0007154665752215632</v>
+        <v>0.0007062869655003185</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07874452790711306</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3.100643642131246</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.096793428570109</v>
+        <v>1.063357866522153</v>
       </c>
       <c r="M25">
-        <v>1.311131227573171</v>
+        <v>0.7151136856906888</v>
+      </c>
+      <c r="N25">
+        <v>0.9818261650248274</v>
+      </c>
+      <c r="O25">
+        <v>3.177223575290981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.711060971848838</v>
+        <v>0.3600405590653395</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05856735576204386</v>
+        <v>0.1134232278422616</v>
       </c>
       <c r="E2">
-        <v>1.658756608546184</v>
+        <v>0.0972817758127853</v>
       </c>
       <c r="F2">
-        <v>3.175339288095728</v>
+        <v>2.993210553278743</v>
       </c>
       <c r="G2">
-        <v>0.0007236722971036578</v>
+        <v>0.0008268511636322362</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.721920890118128</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.873952243771981</v>
       </c>
       <c r="L2">
-        <v>0.8790771289563963</v>
+        <v>0.3196454288786583</v>
       </c>
       <c r="M2">
-        <v>0.5963140882634193</v>
+        <v>0.1674310918416992</v>
       </c>
       <c r="N2">
-        <v>1.039519118634225</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.618751075823113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.502045507840108</v>
+        <v>0.3178097577256978</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05102598959142313</v>
+        <v>0.1117703884861569</v>
       </c>
       <c r="E3">
-        <v>1.454132577350052</v>
+        <v>0.08869397969699477</v>
       </c>
       <c r="F3">
-        <v>2.741473229394728</v>
+        <v>2.730394802747597</v>
       </c>
       <c r="G3">
-        <v>0.0007356667306524341</v>
+        <v>0.0008350588471014454</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.634588360969317</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.612777175329143</v>
       </c>
       <c r="L3">
-        <v>0.7576312248677937</v>
+        <v>0.2829314062374095</v>
       </c>
       <c r="M3">
-        <v>0.5179384836649632</v>
+        <v>0.1479979850062136</v>
       </c>
       <c r="N3">
-        <v>1.08176737648818</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.261639163291193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.375946663216524</v>
+        <v>0.2923400556695697</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04669077174285263</v>
+        <v>0.1107989504414135</v>
       </c>
       <c r="E4">
-        <v>1.33064764377194</v>
+        <v>0.08350537099869904</v>
       </c>
       <c r="F4">
-        <v>2.484828641011319</v>
+        <v>2.573102793638114</v>
       </c>
       <c r="G4">
-        <v>0.0007431689156449596</v>
+        <v>0.0008402369472534086</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.582554121269716</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.455039904278834</v>
       </c>
       <c r="L4">
-        <v>0.6843488912512328</v>
+        <v>0.2608738051265647</v>
       </c>
       <c r="M4">
-        <v>0.4706373643326742</v>
+        <v>0.136302016340732</v>
       </c>
       <c r="N4">
-        <v>1.109211928183477</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.050628634656377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.325051510021666</v>
+        <v>0.282067119926694</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04498818818547079</v>
+        <v>0.110413019289318</v>
       </c>
       <c r="E5">
-        <v>1.280756315734806</v>
+        <v>0.08140734035867325</v>
       </c>
       <c r="F5">
-        <v>2.382347315538695</v>
+        <v>2.509928706749534</v>
       </c>
       <c r="G5">
-        <v>0.0007462649441126651</v>
+        <v>0.0008423833487531351</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.561715411035756</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.391327059786192</v>
       </c>
       <c r="L5">
-        <v>0.6547559650950348</v>
+        <v>0.2519945108558659</v>
       </c>
       <c r="M5">
-        <v>0.4515383693749015</v>
+        <v>0.1315895814091732</v>
       </c>
       <c r="N5">
-        <v>1.120766928583166</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.966422263646521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.316628122579033</v>
+        <v>0.2803674535862228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04470907066208696</v>
+        <v>0.110349508718663</v>
       </c>
       <c r="E6">
-        <v>1.272494861301965</v>
+        <v>0.08105981982708599</v>
       </c>
       <c r="F6">
-        <v>2.365448004164108</v>
+        <v>2.499491658147008</v>
       </c>
       <c r="G6">
-        <v>0.0007467814969000944</v>
+        <v>0.0008427419888140562</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.558276304146112</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.380779200318301</v>
       </c>
       <c r="L6">
-        <v>0.649856965681181</v>
+        <v>0.2505263657787964</v>
       </c>
       <c r="M6">
-        <v>0.4483768452154919</v>
+        <v>0.1308101771127461</v>
       </c>
       <c r="N6">
-        <v>1.122707843507094</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.95253955403382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.375258373838818</v>
+        <v>0.2922010934778427</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04666756327921462</v>
+        <v>0.1107937066408979</v>
       </c>
       <c r="E7">
-        <v>1.329973188978727</v>
+        <v>0.08347701600713542</v>
       </c>
       <c r="F7">
-        <v>2.483438455768095</v>
+        <v>2.572247194681793</v>
       </c>
       <c r="G7">
-        <v>0.0007432105073973315</v>
+        <v>0.0008402657455573679</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.582271645384289</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.454178475772125</v>
       </c>
       <c r="L7">
-        <v>0.683948762339071</v>
+        <v>0.2607536290186232</v>
       </c>
       <c r="M7">
-        <v>0.47037911090937</v>
+        <v>0.1362382521759109</v>
       </c>
       <c r="N7">
-        <v>1.109366269332888</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.049486145732047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.638482527604594</v>
+        <v>0.3453778929271039</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05589926425074054</v>
+        <v>0.1128437053823603</v>
       </c>
       <c r="E8">
-        <v>1.587682419376193</v>
+        <v>0.09430013992649222</v>
       </c>
       <c r="F8">
-        <v>3.02349479964326</v>
+        <v>2.901681504592688</v>
       </c>
       <c r="G8">
-        <v>0.0007277821457307473</v>
+        <v>0.0008296533208992185</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.69145788772552</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.78329524674578</v>
       </c>
       <c r="L8">
-        <v>0.8369016214893463</v>
+        <v>0.3068778861729555</v>
       </c>
       <c r="M8">
-        <v>0.5691004091069232</v>
+        <v>0.1606780665453797</v>
       </c>
       <c r="N8">
-        <v>1.053769813884003</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.493716105314107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.176120734452638</v>
+        <v>0.4537822863251932</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07688727181018606</v>
+        <v>0.1172567390997727</v>
       </c>
       <c r="E9">
-        <v>2.116194579265184</v>
+        <v>0.1164389176623359</v>
       </c>
       <c r="F9">
-        <v>4.178306881376074</v>
+        <v>3.585115056966146</v>
       </c>
       <c r="G9">
-        <v>0.0006983952970422627</v>
+        <v>0.0008098702798310743</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.919840815757269</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.45421299783095</v>
       </c>
       <c r="L9">
-        <v>1.149843097677604</v>
+        <v>0.4018012280044871</v>
       </c>
       <c r="M9">
-        <v>0.7707829282188712</v>
+        <v>0.2107546832493554</v>
       </c>
       <c r="N9">
-        <v>0.957012260682248</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.44591019606338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.590273277945357</v>
+        <v>0.5366721044919984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09498925687545068</v>
+        <v>0.1208138135448138</v>
       </c>
       <c r="E10">
-        <v>2.529023414516857</v>
+        <v>0.133652543066674</v>
       </c>
       <c r="F10">
-        <v>5.11606266499922</v>
+        <v>4.117886386328109</v>
       </c>
       <c r="G10">
-        <v>0.0006769588413730527</v>
+        <v>0.0007958520786377488</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.098900632918017</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.970020429707915</v>
       </c>
       <c r="L10">
-        <v>1.392370541932706</v>
+        <v>0.4752390826363211</v>
       </c>
       <c r="M10">
-        <v>0.9264909543306032</v>
+        <v>0.2492856892635942</v>
       </c>
       <c r="N10">
-        <v>0.8938855150910641</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>4.221055228630718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.784520433897967</v>
+        <v>0.5752685982257617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1040778026849409</v>
+        <v>0.1225195885756278</v>
       </c>
       <c r="E11">
-        <v>2.725251348193169</v>
+        <v>0.1417926206779647</v>
       </c>
       <c r="F11">
-        <v>5.570980597062004</v>
+        <v>4.368910555831519</v>
       </c>
       <c r="G11">
-        <v>0.0006671322964822106</v>
+        <v>0.0007895591036102571</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.183453802925371</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.21152575139422</v>
       </c>
       <c r="L11">
-        <v>1.506777205487992</v>
+        <v>0.5096972686187939</v>
       </c>
       <c r="M11">
-        <v>0.9996929776460988</v>
+        <v>0.2673005145601266</v>
       </c>
       <c r="N11">
-        <v>0.8670070674774735</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4.597640724039451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.859091239886823</v>
+        <v>0.5900290446525389</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1076717938739051</v>
+        <v>0.1231799612014157</v>
       </c>
       <c r="E12">
-        <v>2.801110230141234</v>
+        <v>0.1449297255045146</v>
       </c>
       <c r="F12">
-        <v>5.748276971148243</v>
+        <v>4.465402507153954</v>
       </c>
       <c r="G12">
-        <v>0.0006633888654152489</v>
+        <v>0.0007871855632750313</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.215978432637741</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.304144538598564</v>
       </c>
       <c r="L12">
-        <v>1.55082872532526</v>
+        <v>0.5229201670171193</v>
       </c>
       <c r="M12">
-        <v>1.027830064393477</v>
+        <v>0.2742024609590814</v>
       </c>
       <c r="N12">
-        <v>0.8571027593088019</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.744501144450766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.842982865526096</v>
+        <v>0.586843389765761</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1068904363369967</v>
+        <v>0.1230370645928076</v>
       </c>
       <c r="E13">
-        <v>2.784697303506491</v>
+        <v>0.1442514863359392</v>
       </c>
       <c r="F13">
-        <v>5.709851717216736</v>
+        <v>4.444554180180148</v>
       </c>
       <c r="G13">
-        <v>0.000664196287072915</v>
+        <v>0.0007876963711926095</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.20895011580761</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.28414246348882</v>
       </c>
       <c r="L13">
-        <v>1.541306451949026</v>
+        <v>0.5200642257743766</v>
       </c>
       <c r="M13">
-        <v>1.021750295488786</v>
+        <v>0.2727122660472645</v>
       </c>
       <c r="N13">
-        <v>0.8592234907795699</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4.71266789834803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.790633987984847</v>
+        <v>0.576479943801445</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1043702332566809</v>
+        <v>0.1225736172632352</v>
       </c>
       <c r="E14">
-        <v>2.731458951885955</v>
+        <v>0.1420495537975448</v>
       </c>
       <c r="F14">
-        <v>5.585459816706162</v>
+        <v>4.376819091848006</v>
       </c>
       <c r="G14">
-        <v>0.0006668248455685322</v>
+        <v>0.0007893636570583211</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.186119106034027</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.219121077126999</v>
       </c>
       <c r="L14">
-        <v>1.510385830403152</v>
+        <v>0.5107814875259891</v>
       </c>
       <c r="M14">
-        <v>1.001998977786016</v>
+        <v>0.2678666739114171</v>
       </c>
       <c r="N14">
-        <v>0.8661866879685221</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4.609632412754081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.758706521133547</v>
+        <v>0.5701514230117368</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1028473799243912</v>
+        <v>0.1222916802200871</v>
       </c>
       <c r="E15">
-        <v>2.699062536057923</v>
+        <v>0.1407082478838717</v>
       </c>
       <c r="F15">
-        <v>5.509953236955511</v>
+        <v>4.335522213078832</v>
       </c>
       <c r="G15">
-        <v>0.00066843161634471</v>
+        <v>0.0007903860688343905</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.172202295639778</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.179451159579315</v>
       </c>
       <c r="L15">
-        <v>1.491545635825844</v>
+        <v>0.5051189823191606</v>
       </c>
       <c r="M15">
-        <v>0.9899575848265059</v>
+        <v>0.2649093634416282</v>
       </c>
       <c r="N15">
-        <v>0.8704878134956147</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.547101655891709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.577710431267519</v>
+        <v>0.5341690334111036</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09441484913174492</v>
+        <v>0.1207042519731303</v>
       </c>
       <c r="E16">
-        <v>2.516396222078995</v>
+        <v>0.1331276300801463</v>
       </c>
       <c r="F16">
-        <v>5.08697953904823</v>
+        <v>4.101671316126414</v>
       </c>
       <c r="G16">
-        <v>0.0006775985922069462</v>
+        <v>0.0007962648136758494</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.093442253279477</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.954390371723747</v>
       </c>
       <c r="L16">
-        <v>1.384987292471294</v>
+        <v>0.4730102277050463</v>
       </c>
       <c r="M16">
-        <v>0.9217608783106854</v>
+        <v>0.2481190132266207</v>
       </c>
       <c r="N16">
-        <v>0.8956798977582849</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4.196991811106244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.468285395124838</v>
+        <v>0.5123342695378028</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08947936280573288</v>
+        <v>0.1197540952481759</v>
       </c>
       <c r="E17">
-        <v>2.406711788368554</v>
+        <v>0.1285631891281049</v>
       </c>
       <c r="F17">
-        <v>4.835368898643196</v>
+        <v>3.960557575142332</v>
       </c>
       <c r="G17">
-        <v>0.0006831956041008757</v>
+        <v>0.0007998909849120661</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.045960008564847</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.81820085502207</v>
       </c>
       <c r="L17">
-        <v>1.3207534522993</v>
+        <v>0.4535973741004256</v>
       </c>
       <c r="M17">
-        <v>0.8805808167133193</v>
+        <v>0.23795021323361</v>
       </c>
       <c r="N17">
-        <v>0.9116120743896374</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.988869867137822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.405885263413495</v>
+        <v>0.4998581012469003</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08671884438997068</v>
+        <v>0.1192157175868758</v>
       </c>
       <c r="E18">
-        <v>2.344393159926838</v>
+        <v>0.1259662887735757</v>
       </c>
       <c r="F18">
-        <v>4.693247361387705</v>
+        <v>3.88019559826995</v>
       </c>
       <c r="G18">
-        <v>0.0006864086227108665</v>
+        <v>0.0008019847396792963</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.018937050210567</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.740502133179376</v>
       </c>
       <c r="L18">
-        <v>1.284181797211488</v>
+        <v>0.4425289901667213</v>
       </c>
       <c r="M18">
-        <v>0.8571127955316982</v>
+        <v>0.2321465456603562</v>
       </c>
       <c r="N18">
-        <v>0.9209482742471309</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.871361895977913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.384845369720324</v>
+        <v>0.4956475885222176</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08579682893115148</v>
+        <v>0.1190347759565213</v>
       </c>
       <c r="E19">
-        <v>2.323416183852132</v>
+        <v>0.1250916236252984</v>
       </c>
       <c r="F19">
-        <v>4.64554799285645</v>
+        <v>3.853118932549734</v>
       </c>
       <c r="G19">
-        <v>0.0006874957353322536</v>
+        <v>0.0008026951106655678</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.00983519449872</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.714298456473529</v>
       </c>
       <c r="L19">
-        <v>1.271859665144035</v>
+        <v>0.4387974872898468</v>
       </c>
       <c r="M19">
-        <v>0.8492022360122675</v>
+        <v>0.2301889899087755</v>
       </c>
       <c r="N19">
-        <v>0.9241386740759836</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.831931504450523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.479877025567077</v>
+        <v>0.5146499510987042</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08999646406161332</v>
+        <v>0.1198543873756677</v>
       </c>
       <c r="E20">
-        <v>2.418306104395612</v>
+        <v>0.1290460690240778</v>
       </c>
       <c r="F20">
-        <v>4.861878133063612</v>
+        <v>3.975494980924054</v>
       </c>
       <c r="G20">
-        <v>0.0006826005133125437</v>
+        <v>0.0007995041546502202</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.050984394382141</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.832631630946111</v>
       </c>
       <c r="L20">
-        <v>1.327551624248741</v>
+        <v>0.4556536681450183</v>
       </c>
       <c r="M20">
-        <v>0.8849414749105051</v>
+        <v>0.2390279561980932</v>
       </c>
       <c r="N20">
-        <v>0.9098981511147528</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>4.010792008861131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.805981059015835</v>
+        <v>0.5795198656115588</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.105106070577115</v>
+        <v>0.1227093355356104</v>
       </c>
       <c r="E21">
-        <v>2.747051096720085</v>
+        <v>0.1426947437299582</v>
       </c>
       <c r="F21">
-        <v>5.621851519627683</v>
+        <v>4.396673975617631</v>
       </c>
       <c r="G21">
-        <v>0.000666053485881966</v>
+        <v>0.0007888736999428813</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.192810870189817</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.238186245881309</v>
       </c>
       <c r="L21">
-        <v>1.519446914696601</v>
+        <v>0.5135031224094178</v>
       </c>
       <c r="M21">
-        <v>1.007788408816694</v>
+        <v>0.2692876807814777</v>
       </c>
       <c r="N21">
-        <v>0.8641339156946941</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4.639773535585448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.025124967917975</v>
+        <v>0.6227692976779053</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1158886857791117</v>
+        <v>0.1246603589815791</v>
       </c>
       <c r="E22">
-        <v>2.971175356717353</v>
+        <v>0.1519392410235731</v>
       </c>
       <c r="F22">
-        <v>6.148470074648714</v>
+        <v>4.680405603600121</v>
       </c>
       <c r="G22">
-        <v>0.0006551013658161383</v>
+        <v>0.0007819798517228129</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.288486601187159</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.510136517573017</v>
       </c>
       <c r="L22">
-        <v>1.649197096108054</v>
+        <v>0.5523401182249756</v>
       </c>
       <c r="M22">
-        <v>1.09055536270612</v>
+        <v>0.289536759816869</v>
       </c>
       <c r="N22">
-        <v>0.8358256835998787</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>5.076180389893523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.907546370774185</v>
+        <v>0.5996021139216055</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.110038924066302</v>
+        <v>0.1236106022686272</v>
       </c>
       <c r="E23">
-        <v>2.850571366662052</v>
+        <v>0.1469718483285192</v>
       </c>
       <c r="F23">
-        <v>5.864287007413822</v>
+        <v>4.528129327586299</v>
       </c>
       <c r="G23">
-        <v>0.0006609638926119429</v>
+        <v>0.0007856552540014571</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.237127656848486</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.364294960199629</v>
       </c>
       <c r="L23">
-        <v>1.579494570796015</v>
+        <v>0.5315094957276472</v>
       </c>
       <c r="M23">
-        <v>1.046124420315508</v>
+        <v>0.2786825428486495</v>
       </c>
       <c r="N23">
-        <v>0.8507846302752711</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.840623666350183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.474634874165588</v>
+        <v>0.5136027931029048</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08976244500544084</v>
+        <v>0.119809020895282</v>
       </c>
       <c r="E24">
-        <v>2.413062032308559</v>
+        <v>0.1288276748669155</v>
       </c>
       <c r="F24">
-        <v>4.849885488197231</v>
+        <v>3.968739407216361</v>
       </c>
       <c r="G24">
-        <v>0.000682869567861581</v>
+        <v>0.000799679012347986</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.048712016814093</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.826105626369724</v>
       </c>
       <c r="L24">
-        <v>1.324477068247262</v>
+        <v>0.454723731756161</v>
       </c>
       <c r="M24">
-        <v>0.8829693822895308</v>
+        <v>0.2385405769406717</v>
       </c>
       <c r="N24">
-        <v>0.91067246655453</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4.000874388632042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.027808220087309</v>
+        <v>0.4239432291546876</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0708159744222101</v>
+        <v>0.1160135421793171</v>
       </c>
       <c r="E25">
-        <v>1.96978978339412</v>
+        <v>0.1103145980645373</v>
       </c>
       <c r="F25">
-        <v>3.852789831137756</v>
+        <v>3.395462779112734</v>
       </c>
       <c r="G25">
-        <v>0.0007062869655003185</v>
+        <v>0.0008151227862386185</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.856279854411099</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.269272658615705</v>
       </c>
       <c r="L25">
-        <v>1.063357866522153</v>
+        <v>0.3755489151286042</v>
       </c>
       <c r="M25">
-        <v>0.7151136856906888</v>
+        <v>0.1969357535741132</v>
       </c>
       <c r="N25">
-        <v>0.9818261650248274</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.177223575290981</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3600405590653395</v>
+        <v>0.4767139967802052</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1134232278422616</v>
+        <v>0.1414110798342989</v>
       </c>
       <c r="E2">
-        <v>0.0972817758127853</v>
+        <v>0.08888232657264439</v>
       </c>
       <c r="F2">
-        <v>2.993210553278743</v>
+        <v>2.690921233113954</v>
       </c>
       <c r="G2">
-        <v>0.0008268511636322362</v>
+        <v>0.002552488474298453</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.721920890118128</v>
+        <v>2.049678246306939</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.873952243771981</v>
+        <v>0.7548592873351652</v>
       </c>
       <c r="L2">
-        <v>0.3196454288786583</v>
+        <v>0.2771730801130587</v>
       </c>
       <c r="M2">
-        <v>0.1674310918416992</v>
+        <v>0.178628610453579</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3178097577256978</v>
+        <v>0.4706384337675473</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1117703884861569</v>
+        <v>0.1405149052111483</v>
       </c>
       <c r="E3">
-        <v>0.08869397969699477</v>
+        <v>0.08616212275616597</v>
       </c>
       <c r="F3">
-        <v>2.730394802747597</v>
+        <v>2.624404347715441</v>
       </c>
       <c r="G3">
-        <v>0.0008350588471014454</v>
+        <v>0.002557501898061155</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.634588360969317</v>
+        <v>2.026523120186823</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.612777175329143</v>
+        <v>0.6910621540522186</v>
       </c>
       <c r="L3">
-        <v>0.2829314062374095</v>
+        <v>0.2691312886122574</v>
       </c>
       <c r="M3">
-        <v>0.1479979850062136</v>
+        <v>0.175018353982928</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2923400556695697</v>
+        <v>0.4672450760307214</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1107989504414135</v>
+        <v>0.1399665884082211</v>
       </c>
       <c r="E4">
-        <v>0.08350537099869904</v>
+        <v>0.08446149064471875</v>
       </c>
       <c r="F4">
-        <v>2.573102793638114</v>
+        <v>2.584557025517398</v>
       </c>
       <c r="G4">
-        <v>0.0008402369472534086</v>
+        <v>0.002560742046508135</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.582554121269716</v>
+        <v>2.012720892699498</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.455039904278834</v>
+        <v>0.6524240016238139</v>
       </c>
       <c r="L4">
-        <v>0.2608738051265647</v>
+        <v>0.2643577862079525</v>
       </c>
       <c r="M4">
-        <v>0.136302016340732</v>
+        <v>0.1729184682892466</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.282067119926694</v>
+        <v>0.465947247614622</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.110413019289318</v>
+        <v>0.1397436004083303</v>
       </c>
       <c r="E5">
-        <v>0.08140734035867325</v>
+        <v>0.08376070041519945</v>
       </c>
       <c r="F5">
-        <v>2.509928706749534</v>
+        <v>2.568567719350256</v>
       </c>
       <c r="G5">
-        <v>0.0008423833487531351</v>
+        <v>0.002562103278566319</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.561715411035756</v>
+        <v>2.007200331690498</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.391327059786192</v>
+        <v>0.6368116784981055</v>
       </c>
       <c r="L5">
-        <v>0.2519945108558659</v>
+        <v>0.2624537518054098</v>
       </c>
       <c r="M5">
-        <v>0.1315895814091732</v>
+        <v>0.1720921504452058</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2803674535862228</v>
+        <v>0.4657368845127792</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.110349508718663</v>
+        <v>0.1397066000023202</v>
       </c>
       <c r="E6">
-        <v>0.08105981982708599</v>
+        <v>0.08364386200724816</v>
       </c>
       <c r="F6">
-        <v>2.499491658147008</v>
+        <v>2.56592769859023</v>
       </c>
       <c r="G6">
-        <v>0.0008427419888140562</v>
+        <v>0.002562331780748653</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.558276304146112</v>
+        <v>2.006289913207134</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.380779200318301</v>
+        <v>0.6342272667437499</v>
       </c>
       <c r="L6">
-        <v>0.2505263657787964</v>
+        <v>0.2621400748251688</v>
       </c>
       <c r="M6">
-        <v>0.1308101771127461</v>
+        <v>0.1719567176306427</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2922010934778427</v>
+        <v>0.467227228617844</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1107937066408979</v>
+        <v>0.1399635793115124</v>
       </c>
       <c r="E7">
-        <v>0.08347701600713542</v>
+        <v>0.08445207115482489</v>
       </c>
       <c r="F7">
-        <v>2.572247194681793</v>
+        <v>2.584340382395581</v>
       </c>
       <c r="G7">
-        <v>0.0008402657455573679</v>
+        <v>0.00256076023916121</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.582271645384289</v>
+        <v>2.012646020132948</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.454178475772125</v>
+        <v>0.6522129111858135</v>
       </c>
       <c r="L7">
-        <v>0.2607536290186232</v>
+        <v>0.2643319409953477</v>
       </c>
       <c r="M7">
-        <v>0.1362382521759109</v>
+        <v>0.1729072051929812</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3453778929271039</v>
+        <v>0.4745493218450463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1128437053823603</v>
+        <v>0.1411016572628725</v>
       </c>
       <c r="E8">
-        <v>0.09430013992649222</v>
+        <v>0.08795063982634055</v>
       </c>
       <c r="F8">
-        <v>2.901681504592688</v>
+        <v>2.66777907603003</v>
       </c>
       <c r="G8">
-        <v>0.0008296533208992185</v>
+        <v>0.002554183586386575</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.69145788772552</v>
+        <v>2.041607937512126</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.78329524674578</v>
+        <v>0.7327505947080226</v>
       </c>
       <c r="L8">
-        <v>0.3068778861729555</v>
+        <v>0.2743661405856699</v>
       </c>
       <c r="M8">
-        <v>0.1606780665453797</v>
+        <v>0.1773595600172158</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4537822863251932</v>
+        <v>0.4915737201678212</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1172567390997727</v>
+        <v>0.1433503223696491</v>
       </c>
       <c r="E9">
-        <v>0.1164389176623359</v>
+        <v>0.09457565138248469</v>
       </c>
       <c r="F9">
-        <v>3.585115056966146</v>
+        <v>2.839357319464824</v>
       </c>
       <c r="G9">
-        <v>0.0008098702798310743</v>
+        <v>0.002542565004074581</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.919840815757269</v>
+        <v>2.101718734317998</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.45421299783095</v>
+        <v>0.8949784315719285</v>
       </c>
       <c r="L9">
-        <v>0.4018012280044871</v>
+        <v>0.2953510423216414</v>
       </c>
       <c r="M9">
-        <v>0.2107546832493554</v>
+        <v>0.1870172528434786</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5366721044919984</v>
+        <v>0.5056975715906447</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1208138135448138</v>
+        <v>0.1450149468403268</v>
       </c>
       <c r="E10">
-        <v>0.133652543066674</v>
+        <v>0.09930755363051347</v>
       </c>
       <c r="F10">
-        <v>4.117886386328109</v>
+        <v>2.970371687043553</v>
       </c>
       <c r="G10">
-        <v>0.0007958520786377488</v>
+        <v>0.00253479926099284</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.098900632918017</v>
+        <v>2.147940883511424</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.970020429707915</v>
+        <v>1.016881776255019</v>
       </c>
       <c r="L10">
-        <v>0.4752390826363211</v>
+        <v>0.3115751311753741</v>
       </c>
       <c r="M10">
-        <v>0.2492856892635942</v>
+        <v>0.1946784154479957</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5752685982257617</v>
+        <v>0.5124720669965939</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1225195885756278</v>
+        <v>0.1457754330656371</v>
       </c>
       <c r="E11">
-        <v>0.1417926206779647</v>
+        <v>0.1014325944412349</v>
       </c>
       <c r="F11">
-        <v>4.368910555831519</v>
+        <v>3.031073563916237</v>
       </c>
       <c r="G11">
-        <v>0.0007895591036102571</v>
+        <v>0.002531431835749677</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.183453802925371</v>
+        <v>2.169423849867314</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.21152575139422</v>
+        <v>1.07295021509708</v>
       </c>
       <c r="L11">
-        <v>0.5096972686187939</v>
+        <v>0.3191331511058877</v>
       </c>
       <c r="M11">
-        <v>0.2673005145601266</v>
+        <v>0.1982867641133339</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5900290446525389</v>
+        <v>0.515087462515055</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1231799612014157</v>
+        <v>0.1460639112350179</v>
       </c>
       <c r="E12">
-        <v>0.1449297255045146</v>
+        <v>0.1022334745310332</v>
       </c>
       <c r="F12">
-        <v>4.465402507153954</v>
+        <v>3.054220005437116</v>
       </c>
       <c r="G12">
-        <v>0.0007871855632750313</v>
+        <v>0.00253018029868856</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.215978432637741</v>
+        <v>2.177625060620869</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.304144538598564</v>
+        <v>1.094271701974776</v>
       </c>
       <c r="L12">
-        <v>0.5229201670171193</v>
+        <v>0.3220208499579087</v>
       </c>
       <c r="M12">
-        <v>0.2742024609590814</v>
+        <v>0.1996708748351068</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.586843389765761</v>
+        <v>0.5145219680755986</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1230370645928076</v>
+        <v>0.1460017596088647</v>
       </c>
       <c r="E13">
-        <v>0.1442514863359392</v>
+        <v>0.1020611587623215</v>
       </c>
       <c r="F13">
-        <v>4.444554180180148</v>
+        <v>3.049227868802518</v>
       </c>
       <c r="G13">
-        <v>0.0007876963711926095</v>
+        <v>0.002530448790537325</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.20895011580761</v>
+        <v>2.175855836889227</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.28414246348882</v>
+        <v>1.089675733073307</v>
       </c>
       <c r="L13">
-        <v>0.5200642257743766</v>
+        <v>0.3213977903117211</v>
       </c>
       <c r="M13">
-        <v>0.2727122660472645</v>
+        <v>0.1993719945152392</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.576479943801445</v>
+        <v>0.5126862354764796</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1225736172632352</v>
+        <v>0.145799156159967</v>
       </c>
       <c r="E14">
-        <v>0.1420495537975448</v>
+        <v>0.1014985592639945</v>
       </c>
       <c r="F14">
-        <v>4.376819091848006</v>
+        <v>3.03297462183869</v>
       </c>
       <c r="G14">
-        <v>0.0007893636570583211</v>
+        <v>0.002531328398041332</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.186119106034027</v>
+        <v>2.17009724144522</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.219121077126999</v>
+        <v>1.074702543723333</v>
       </c>
       <c r="L14">
-        <v>0.5107814875259891</v>
+        <v>0.319370209356336</v>
       </c>
       <c r="M14">
-        <v>0.2678666739114171</v>
+        <v>0.1984002809361129</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5701514230117368</v>
+        <v>0.5115683067866144</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1222916802200871</v>
+        <v>0.1456751215901164</v>
       </c>
       <c r="E15">
-        <v>0.1407082478838717</v>
+        <v>0.1011534563960588</v>
       </c>
       <c r="F15">
-        <v>4.335522213078832</v>
+        <v>3.023039911229574</v>
       </c>
       <c r="G15">
-        <v>0.0007903860688343905</v>
+        <v>0.002531870257095318</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.172202295639778</v>
+        <v>2.166578554564069</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.179451159579315</v>
+        <v>1.065542738441934</v>
       </c>
       <c r="L15">
-        <v>0.5051189823191606</v>
+        <v>0.3181315997288579</v>
       </c>
       <c r="M15">
-        <v>0.2649093634416282</v>
+        <v>0.1978073839035552</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5341690334111036</v>
+        <v>0.5052618565031537</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1207042519731303</v>
+        <v>0.1449653152664112</v>
       </c>
       <c r="E16">
-        <v>0.1331276300801463</v>
+        <v>0.0991681345312756</v>
       </c>
       <c r="F16">
-        <v>4.101671316126414</v>
+        <v>2.966426985018245</v>
       </c>
       <c r="G16">
-        <v>0.0007962648136758494</v>
+        <v>0.002535022644373143</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.093442253279477</v>
+        <v>2.146546142357678</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.954390371723747</v>
+        <v>1.013230037178062</v>
       </c>
       <c r="L16">
-        <v>0.4730102277050463</v>
+        <v>0.3110847792344202</v>
       </c>
       <c r="M16">
-        <v>0.2481190132266207</v>
+        <v>0.1944450800768394</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5123342695378028</v>
+        <v>0.5014824112559211</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1197540952481759</v>
+        <v>0.1445307251890497</v>
       </c>
       <c r="E17">
-        <v>0.1285631891281049</v>
+        <v>0.09794324697768175</v>
       </c>
       <c r="F17">
-        <v>3.960557575142332</v>
+        <v>2.931980214491347</v>
       </c>
       <c r="G17">
-        <v>0.0007998909849120661</v>
+        <v>0.002536998764466298</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.045960008564847</v>
+        <v>2.13437410064671</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.81820085502207</v>
+        <v>0.9812960619150886</v>
       </c>
       <c r="L17">
-        <v>0.4535973741004256</v>
+        <v>0.3068073426051683</v>
       </c>
       <c r="M17">
-        <v>0.23795021323361</v>
+        <v>0.1924139707540071</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4998581012469003</v>
+        <v>0.4993414820452529</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1192157175868758</v>
+        <v>0.1442810635112366</v>
       </c>
       <c r="E18">
-        <v>0.1259662887735757</v>
+        <v>0.097236125299343</v>
       </c>
       <c r="F18">
-        <v>3.88019559826995</v>
+        <v>2.912271059076602</v>
       </c>
       <c r="G18">
-        <v>0.0008019847396792963</v>
+        <v>0.002538150938427338</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.018937050210567</v>
+        <v>2.127415983385731</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.740502133179376</v>
+        <v>0.9629861973849074</v>
       </c>
       <c r="L18">
-        <v>0.4425289901667213</v>
+        <v>0.3043637845363918</v>
       </c>
       <c r="M18">
-        <v>0.2321465456603562</v>
+        <v>0.1912573318524871</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4956475885222176</v>
+        <v>0.4986222587225768</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1190347759565213</v>
+        <v>0.1441965834093679</v>
       </c>
       <c r="E19">
-        <v>0.1250916236252984</v>
+        <v>0.09699625573406578</v>
       </c>
       <c r="F19">
-        <v>3.853118932549734</v>
+        <v>2.905615649217594</v>
       </c>
       <c r="G19">
-        <v>0.0008026951106655678</v>
+        <v>0.002538543721324117</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.00983519449872</v>
+        <v>2.125067441701916</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.714298456473529</v>
+        <v>0.9567966651440258</v>
       </c>
       <c r="L19">
-        <v>0.4387974872898468</v>
+        <v>0.3035393047128139</v>
       </c>
       <c r="M19">
-        <v>0.2301889899087755</v>
+        <v>0.1908677068491755</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5146499510987042</v>
+        <v>0.5018813353979681</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1198543873756677</v>
+        <v>0.1445769564469046</v>
       </c>
       <c r="E20">
-        <v>0.1290460690240778</v>
+        <v>0.09807390635919688</v>
       </c>
       <c r="F20">
-        <v>3.975494980924054</v>
+        <v>2.935636387910762</v>
       </c>
       <c r="G20">
-        <v>0.0007995041546502202</v>
+        <v>0.002536786793677276</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.050984394382141</v>
+        <v>2.135665389951185</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.832631630946111</v>
+        <v>0.9846895056711276</v>
       </c>
       <c r="L20">
-        <v>0.4556536681450183</v>
+        <v>0.3072609528494894</v>
       </c>
       <c r="M20">
-        <v>0.2390279561980932</v>
+        <v>0.1926289852195353</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5795198656115588</v>
+        <v>0.513224078227438</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1227093355356104</v>
+        <v>0.1458586519152405</v>
       </c>
       <c r="E21">
-        <v>0.1426947437299582</v>
+        <v>0.1016639111768107</v>
       </c>
       <c r="F21">
-        <v>4.396673975617631</v>
+        <v>3.03774424217093</v>
       </c>
       <c r="G21">
-        <v>0.0007888736999428813</v>
+        <v>0.002531069395595836</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.192810870189817</v>
+        <v>2.171786883469352</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.238186245881309</v>
+        <v>1.07909809062636</v>
       </c>
       <c r="L21">
-        <v>0.5135031224094178</v>
+        <v>0.3199650623240871</v>
       </c>
       <c r="M21">
-        <v>0.2692876807814777</v>
+        <v>0.198685216311091</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6227692976779053</v>
+        <v>0.5209287975023642</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1246603589815791</v>
+        <v>0.1466992349606997</v>
       </c>
       <c r="E22">
-        <v>0.1519392410235731</v>
+        <v>0.1039879437044142</v>
       </c>
       <c r="F22">
-        <v>4.680405603600121</v>
+        <v>3.105410637002365</v>
       </c>
       <c r="G22">
-        <v>0.0007819798517228129</v>
+        <v>0.002527470443069434</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.288486601187159</v>
+        <v>2.195779736207001</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.510136517573017</v>
+        <v>1.141322351028805</v>
       </c>
       <c r="L22">
-        <v>0.5523401182249756</v>
+        <v>0.3284174353177889</v>
       </c>
       <c r="M22">
-        <v>0.289536759816869</v>
+        <v>0.2027465195508356</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5996021139216055</v>
+        <v>0.516790033999456</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1236106022686272</v>
+        <v>0.1462503219436826</v>
       </c>
       <c r="E23">
-        <v>0.1469718483285192</v>
+        <v>0.1027495552583453</v>
       </c>
       <c r="F23">
-        <v>4.528129327586299</v>
+        <v>3.069209978525322</v>
       </c>
       <c r="G23">
-        <v>0.0007856552540014571</v>
+        <v>0.002529378714963628</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.237127656848486</v>
+        <v>2.182938883561761</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.364294960199629</v>
+        <v>1.108063823000521</v>
       </c>
       <c r="L23">
-        <v>0.5315094957276472</v>
+        <v>0.3238925308462228</v>
       </c>
       <c r="M23">
-        <v>0.2786825428486495</v>
+        <v>0.2005694869275345</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5136027931029048</v>
+        <v>0.5017008823378717</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.119809020895282</v>
+        <v>0.1445560547057383</v>
       </c>
       <c r="E24">
-        <v>0.1288276748669155</v>
+        <v>0.0980148443523845</v>
       </c>
       <c r="F24">
-        <v>3.968739407216361</v>
+        <v>2.933983136861826</v>
       </c>
       <c r="G24">
-        <v>0.000799679012347986</v>
+        <v>0.002536882575453481</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.048712016814093</v>
+        <v>2.135081474262805</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.826105626369724</v>
+        <v>0.9831551759696993</v>
       </c>
       <c r="L24">
-        <v>0.454723731756161</v>
+        <v>0.3070558270831611</v>
       </c>
       <c r="M24">
-        <v>0.2385405769406717</v>
+        <v>0.192531742688189</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4239432291546876</v>
+        <v>0.4866837332501035</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1160135421793171</v>
+        <v>0.1427399591543903</v>
       </c>
       <c r="E25">
-        <v>0.1103145980645373</v>
+        <v>0.09280780022775659</v>
       </c>
       <c r="F25">
-        <v>3.395462779112734</v>
+        <v>2.792078278583261</v>
       </c>
       <c r="G25">
-        <v>0.0008151227862386185</v>
+        <v>0.002545572209643331</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.856279854411099</v>
+        <v>2.085098304383948</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.269272658615705</v>
+        <v>0.8506218876936771</v>
       </c>
       <c r="L25">
-        <v>0.3755489151286042</v>
+        <v>0.2895331155155674</v>
       </c>
       <c r="M25">
-        <v>0.1969357535741132</v>
+        <v>0.1843053155590155</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4767139967802052</v>
+        <v>0.3600405590653821</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1414110798342989</v>
+        <v>0.1134232278422473</v>
       </c>
       <c r="E2">
-        <v>0.08888232657264439</v>
+        <v>0.09728177581274622</v>
       </c>
       <c r="F2">
-        <v>2.690921233113954</v>
+        <v>2.993210553278772</v>
       </c>
       <c r="G2">
-        <v>0.002552488474298453</v>
+        <v>0.0008268511637466674</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.049678246306939</v>
+        <v>1.721920890118099</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7548592873351652</v>
+        <v>1.873952243771868</v>
       </c>
       <c r="L2">
-        <v>0.2771730801130587</v>
+        <v>0.3196454288786583</v>
       </c>
       <c r="M2">
-        <v>0.178628610453579</v>
+        <v>0.1674310918416957</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4706384337675473</v>
+        <v>0.3178097577258683</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1405149052111483</v>
+        <v>0.1117703884861214</v>
       </c>
       <c r="E3">
-        <v>0.08616212275616597</v>
+        <v>0.08869397969707293</v>
       </c>
       <c r="F3">
-        <v>2.624404347715441</v>
+        <v>2.730394802747568</v>
       </c>
       <c r="G3">
-        <v>0.002557501898061155</v>
+        <v>0.0008350588471571697</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.026523120186823</v>
+        <v>1.634588360969303</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6910621540522186</v>
+        <v>1.612777175329143</v>
       </c>
       <c r="L3">
-        <v>0.2691312886122574</v>
+        <v>0.2829314062373953</v>
       </c>
       <c r="M3">
-        <v>0.175018353982928</v>
+        <v>0.1479979850062243</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4672450760307214</v>
+        <v>0.2923400556695555</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1399665884082211</v>
+        <v>0.1107989504414064</v>
       </c>
       <c r="E4">
-        <v>0.08446149064471875</v>
+        <v>0.08350537099865285</v>
       </c>
       <c r="F4">
-        <v>2.584557025517398</v>
+        <v>2.573102793638128</v>
       </c>
       <c r="G4">
-        <v>0.002560742046508135</v>
+        <v>0.00084023694719345</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.012720892699498</v>
+        <v>1.582554121269709</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6524240016238139</v>
+        <v>1.455039904278834</v>
       </c>
       <c r="L4">
-        <v>0.2643577862079525</v>
+        <v>0.2608738051265647</v>
       </c>
       <c r="M4">
-        <v>0.1729184682892466</v>
+        <v>0.1363020163407178</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.465947247614622</v>
+        <v>0.282067119926765</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1397436004083303</v>
+        <v>0.1104130192890764</v>
       </c>
       <c r="E5">
-        <v>0.08376070041519945</v>
+        <v>0.08140734035865371</v>
       </c>
       <c r="F5">
-        <v>2.568567719350256</v>
+        <v>2.509928706749548</v>
       </c>
       <c r="G5">
-        <v>0.002562103278566319</v>
+        <v>0.0008423833487486074</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.007200331690498</v>
+        <v>1.561715411035756</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6368116784981055</v>
+        <v>1.391327059786136</v>
       </c>
       <c r="L5">
-        <v>0.2624537518054098</v>
+        <v>0.2519945108559654</v>
       </c>
       <c r="M5">
-        <v>0.1720921504452058</v>
+        <v>0.1315895814091732</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4657368845127792</v>
+        <v>0.2803674535861802</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1397066000023202</v>
+        <v>0.110349508718528</v>
       </c>
       <c r="E6">
-        <v>0.08364386200724816</v>
+        <v>0.08105981982706467</v>
       </c>
       <c r="F6">
-        <v>2.56592769859023</v>
+        <v>2.499491658147022</v>
       </c>
       <c r="G6">
-        <v>0.002562331780748653</v>
+        <v>0.0008427419888090422</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.006289913207134</v>
+        <v>1.558276304146119</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6342272667437499</v>
+        <v>1.380779200318244</v>
       </c>
       <c r="L6">
-        <v>0.2621400748251688</v>
+        <v>0.250526365778839</v>
       </c>
       <c r="M6">
-        <v>0.1719567176306427</v>
+        <v>0.1308101771127248</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.467227228617844</v>
+        <v>0.2922010934778001</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1399635793115124</v>
+        <v>0.1107937066411182</v>
       </c>
       <c r="E7">
-        <v>0.08445207115482489</v>
+        <v>0.08347701600712831</v>
       </c>
       <c r="F7">
-        <v>2.584340382395581</v>
+        <v>2.572247194681836</v>
       </c>
       <c r="G7">
-        <v>0.00256076023916121</v>
+        <v>0.000840265745555016</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.012646020132948</v>
+        <v>1.582271645384282</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6522129111858135</v>
+        <v>1.454178475772096</v>
       </c>
       <c r="L7">
-        <v>0.2643319409953477</v>
+        <v>0.2607536290185664</v>
       </c>
       <c r="M7">
-        <v>0.1729072051929812</v>
+        <v>0.1362382521759002</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4745493218450463</v>
+        <v>0.3453778929271465</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1411016572628725</v>
+        <v>0.1128437053824811</v>
       </c>
       <c r="E8">
-        <v>0.08795063982634055</v>
+        <v>0.09430013992646025</v>
       </c>
       <c r="F8">
-        <v>2.66777907603003</v>
+        <v>2.901681504592688</v>
       </c>
       <c r="G8">
-        <v>0.002554183586386575</v>
+        <v>0.0008296533209030603</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.041607937512126</v>
+        <v>1.69145788772552</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7327505947080226</v>
+        <v>1.783295246745723</v>
       </c>
       <c r="L8">
-        <v>0.2743661405856699</v>
+        <v>0.3068778861730266</v>
       </c>
       <c r="M8">
-        <v>0.1773595600172158</v>
+        <v>0.1606780665453762</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4915737201678212</v>
+        <v>0.453782286325179</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1433503223696491</v>
+        <v>0.1172567390995383</v>
       </c>
       <c r="E9">
-        <v>0.09457565138248469</v>
+        <v>0.1164389176623288</v>
       </c>
       <c r="F9">
-        <v>2.839357319464824</v>
+        <v>3.585115056966146</v>
       </c>
       <c r="G9">
-        <v>0.002542565004074581</v>
+        <v>0.000809870279829742</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.101718734317998</v>
+        <v>1.919840815757254</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8949784315719285</v>
+        <v>2.454212997831064</v>
       </c>
       <c r="L9">
-        <v>0.2953510423216414</v>
+        <v>0.4018012280044587</v>
       </c>
       <c r="M9">
-        <v>0.1870172528434786</v>
+        <v>0.2107546832493483</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5056975715906447</v>
+        <v>0.5366721044922826</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1450149468403268</v>
+        <v>0.1208138135450412</v>
       </c>
       <c r="E10">
-        <v>0.09930755363051347</v>
+        <v>0.1336525430666775</v>
       </c>
       <c r="F10">
-        <v>2.970371687043553</v>
+        <v>4.117886386328138</v>
       </c>
       <c r="G10">
-        <v>0.00253479926099284</v>
+        <v>0.0007958520785427015</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.147940883511424</v>
+        <v>2.098900632918017</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.016881776255019</v>
+        <v>2.970020429708029</v>
       </c>
       <c r="L10">
-        <v>0.3115751311753741</v>
+        <v>0.4752390826363211</v>
       </c>
       <c r="M10">
-        <v>0.1946784154479957</v>
+        <v>0.2492856892636155</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5124720669965939</v>
+        <v>0.5752685982255912</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1457754330656371</v>
+        <v>0.1225195885758765</v>
       </c>
       <c r="E11">
-        <v>0.1014325944412349</v>
+        <v>0.1417926206779327</v>
       </c>
       <c r="F11">
-        <v>3.031073563916237</v>
+        <v>4.368910555831519</v>
       </c>
       <c r="G11">
-        <v>0.002531431835749677</v>
+        <v>0.0007895591035013912</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.169423849867314</v>
+        <v>2.183453802925385</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.07295021509708</v>
+        <v>3.211525751394106</v>
       </c>
       <c r="L11">
-        <v>0.3191331511058877</v>
+        <v>0.5096972686187229</v>
       </c>
       <c r="M11">
-        <v>0.1982867641133339</v>
+        <v>0.2673005145601408</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.515087462515055</v>
+        <v>0.5900290446523968</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1460639112350179</v>
+        <v>0.123179961201636</v>
       </c>
       <c r="E12">
-        <v>0.1022334745310332</v>
+        <v>0.1449297255044826</v>
       </c>
       <c r="F12">
-        <v>3.054220005437116</v>
+        <v>4.465402507153982</v>
       </c>
       <c r="G12">
-        <v>0.00253018029868856</v>
+        <v>0.0007871855631944628</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.177625060620869</v>
+        <v>2.215978432637741</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.094271701974776</v>
+        <v>3.304144538598621</v>
       </c>
       <c r="L12">
-        <v>0.3220208499579087</v>
+        <v>0.5229201670171619</v>
       </c>
       <c r="M12">
-        <v>0.1996708748351068</v>
+        <v>0.2742024609590743</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5145219680755986</v>
+        <v>0.5868433897656473</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1460017596088647</v>
+        <v>0.1230370645931771</v>
       </c>
       <c r="E13">
-        <v>0.1020611587623215</v>
+        <v>0.1442514863359392</v>
       </c>
       <c r="F13">
-        <v>3.049227868802518</v>
+        <v>4.444554180180205</v>
       </c>
       <c r="G13">
-        <v>0.002530448790537325</v>
+        <v>0.0007876963711910126</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.175855836889227</v>
+        <v>2.20895011580761</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.089675733073307</v>
+        <v>3.284142463488763</v>
       </c>
       <c r="L13">
-        <v>0.3213977903117211</v>
+        <v>0.5200642257743198</v>
       </c>
       <c r="M13">
-        <v>0.1993719945152392</v>
+        <v>0.2727122660472645</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5126862354764796</v>
+        <v>0.5764799438015302</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.145799156159967</v>
+        <v>0.1225736172629368</v>
       </c>
       <c r="E14">
-        <v>0.1014985592639945</v>
+        <v>0.1420495537975448</v>
       </c>
       <c r="F14">
-        <v>3.03297462183869</v>
+        <v>4.376819091848034</v>
       </c>
       <c r="G14">
-        <v>0.002531328398041332</v>
+        <v>0.0007893636571160375</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.17009724144522</v>
+        <v>2.186119106034013</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.074702543723333</v>
+        <v>3.219121077127056</v>
       </c>
       <c r="L14">
-        <v>0.319370209356336</v>
+        <v>0.5107814875259891</v>
       </c>
       <c r="M14">
-        <v>0.1984002809361129</v>
+        <v>0.2678666739114206</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5115683067866144</v>
+        <v>0.5701514230119642</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1456751215901164</v>
+        <v>0.1222916802201723</v>
       </c>
       <c r="E15">
-        <v>0.1011534563960588</v>
+        <v>0.1407082478839072</v>
       </c>
       <c r="F15">
-        <v>3.023039911229574</v>
+        <v>4.33552221307886</v>
       </c>
       <c r="G15">
-        <v>0.002531870257095318</v>
+        <v>0.0007903860690264989</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.166578554564069</v>
+        <v>2.172202295639778</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.065542738441934</v>
+        <v>3.179451159579514</v>
       </c>
       <c r="L15">
-        <v>0.3181315997288579</v>
+        <v>0.5051189823191038</v>
       </c>
       <c r="M15">
-        <v>0.1978073839035552</v>
+        <v>0.2649093634416282</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5052618565031537</v>
+        <v>0.5341690334111036</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1449653152664112</v>
+        <v>0.120704251973514</v>
       </c>
       <c r="E16">
-        <v>0.0991681345312756</v>
+        <v>0.1331276300801605</v>
       </c>
       <c r="F16">
-        <v>2.966426985018245</v>
+        <v>4.101671316126442</v>
       </c>
       <c r="G16">
-        <v>0.002535022644373143</v>
+        <v>0.0007962648136961935</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.146546142357678</v>
+        <v>2.093442253279477</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.013230037178062</v>
+        <v>2.954390371723633</v>
       </c>
       <c r="L16">
-        <v>0.3110847792344202</v>
+        <v>0.4730102277050179</v>
       </c>
       <c r="M16">
-        <v>0.1944450800768394</v>
+        <v>0.2481190132266136</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5014824112559211</v>
+        <v>0.5123342695377744</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1445307251890497</v>
+        <v>0.1197540952484459</v>
       </c>
       <c r="E17">
-        <v>0.09794324697768175</v>
+        <v>0.1285631891281014</v>
       </c>
       <c r="F17">
-        <v>2.931980214491347</v>
+        <v>3.96055757514236</v>
       </c>
       <c r="G17">
-        <v>0.002536998764466298</v>
+        <v>0.000799890984833737</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.13437410064671</v>
+        <v>2.045960008564862</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9812960619150886</v>
+        <v>2.818200855022042</v>
       </c>
       <c r="L17">
-        <v>0.3068073426051683</v>
+        <v>0.4535973741004256</v>
       </c>
       <c r="M17">
-        <v>0.1924139707540071</v>
+        <v>0.2379502132336029</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4993414820452529</v>
+        <v>0.4998581012468719</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1442810635112366</v>
+        <v>0.119215717587025</v>
       </c>
       <c r="E18">
-        <v>0.097236125299343</v>
+        <v>0.1259662887735438</v>
       </c>
       <c r="F18">
-        <v>2.912271059076602</v>
+        <v>3.88019559826995</v>
       </c>
       <c r="G18">
-        <v>0.002538150938427338</v>
+        <v>0.0008019847396070319</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.127415983385731</v>
+        <v>2.018937050210553</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9629861973849074</v>
+        <v>2.740502133179461</v>
       </c>
       <c r="L18">
-        <v>0.3043637845363918</v>
+        <v>0.4425289901666787</v>
       </c>
       <c r="M18">
-        <v>0.1912573318524871</v>
+        <v>0.2321465456603562</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4986222587225768</v>
+        <v>0.4956475885223597</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1441965834093679</v>
+        <v>0.1190347759562727</v>
       </c>
       <c r="E19">
-        <v>0.09699625573406578</v>
+        <v>0.1250916236252344</v>
       </c>
       <c r="F19">
-        <v>2.905615649217594</v>
+        <v>3.853118932549734</v>
       </c>
       <c r="G19">
-        <v>0.002538543721324117</v>
+        <v>0.000802695110721378</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.125067441701916</v>
+        <v>2.00983519449872</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9567966651440258</v>
+        <v>2.714298456473614</v>
       </c>
       <c r="L19">
-        <v>0.3035393047128139</v>
+        <v>0.4387974872898042</v>
       </c>
       <c r="M19">
-        <v>0.1908677068491755</v>
+        <v>0.2301889899087755</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5018813353979681</v>
+        <v>0.5146499510986473</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1445769564469046</v>
+        <v>0.1198543873752698</v>
       </c>
       <c r="E20">
-        <v>0.09807390635919688</v>
+        <v>0.1290460690240742</v>
       </c>
       <c r="F20">
-        <v>2.935636387910762</v>
+        <v>3.975494980924111</v>
       </c>
       <c r="G20">
-        <v>0.002536786793677276</v>
+        <v>0.0007995041545890093</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.135665389951185</v>
+        <v>2.050984394382141</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9846895056711276</v>
+        <v>2.832631630946253</v>
       </c>
       <c r="L20">
-        <v>0.3072609528494894</v>
+        <v>0.4556536681451462</v>
       </c>
       <c r="M20">
-        <v>0.1926289852195353</v>
+        <v>0.239027956198079</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.513224078227438</v>
+        <v>0.5795198656113314</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1458586519152405</v>
+        <v>0.1227093355354327</v>
       </c>
       <c r="E21">
-        <v>0.1016639111768107</v>
+        <v>0.142694743729983</v>
       </c>
       <c r="F21">
-        <v>3.03774424217093</v>
+        <v>4.396673975617631</v>
       </c>
       <c r="G21">
-        <v>0.002531069395595836</v>
+        <v>0.0007888737001531925</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.171786883469352</v>
+        <v>2.192810870189803</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.07909809062636</v>
+        <v>3.238186245881423</v>
       </c>
       <c r="L21">
-        <v>0.3199650623240871</v>
+        <v>0.5135031224095314</v>
       </c>
       <c r="M21">
-        <v>0.198685216311091</v>
+        <v>0.2692876807814883</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5209287975023642</v>
+        <v>0.6227692976777917</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1466992349606997</v>
+        <v>0.1246603589816502</v>
       </c>
       <c r="E22">
-        <v>0.1039879437044142</v>
+        <v>0.1519392410235731</v>
       </c>
       <c r="F22">
-        <v>3.105410637002365</v>
+        <v>4.68040560360015</v>
       </c>
       <c r="G22">
-        <v>0.002527470443069434</v>
+        <v>0.0007819798517230137</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.195779736207001</v>
+        <v>2.288486601187159</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.141322351028805</v>
+        <v>3.510136517573073</v>
       </c>
       <c r="L22">
-        <v>0.3284174353177889</v>
+        <v>0.5523401182249614</v>
       </c>
       <c r="M22">
-        <v>0.2027465195508356</v>
+        <v>0.289536759816869</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.516790033999456</v>
+        <v>0.599602113921577</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1462503219436826</v>
+        <v>0.1236106022684638</v>
       </c>
       <c r="E23">
-        <v>0.1027495552583453</v>
+        <v>0.1469718483285689</v>
       </c>
       <c r="F23">
-        <v>3.069209978525322</v>
+        <v>4.528129327586328</v>
       </c>
       <c r="G23">
-        <v>0.002529378714963628</v>
+        <v>0.0007856552539190929</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.182938883561761</v>
+        <v>2.237127656848486</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.108063823000521</v>
+        <v>3.364294960199743</v>
       </c>
       <c r="L23">
-        <v>0.3238925308462228</v>
+        <v>0.5315094957278035</v>
       </c>
       <c r="M23">
-        <v>0.2005694869275345</v>
+        <v>0.2786825428486495</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5017008823378717</v>
+        <v>0.5136027931028195</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1445560547057383</v>
+        <v>0.1198090208957439</v>
       </c>
       <c r="E24">
-        <v>0.0980148443523845</v>
+        <v>0.128827674866919</v>
       </c>
       <c r="F24">
-        <v>2.933983136861826</v>
+        <v>3.968739407216418</v>
       </c>
       <c r="G24">
-        <v>0.002536882575453481</v>
+        <v>0.0007996790123279141</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.135081474262805</v>
+        <v>2.048712016814122</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9831551759696993</v>
+        <v>2.826105626369923</v>
       </c>
       <c r="L24">
-        <v>0.3070558270831611</v>
+        <v>0.4547237317560899</v>
       </c>
       <c r="M24">
-        <v>0.192531742688189</v>
+        <v>0.2385405769406965</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4866837332501035</v>
+        <v>0.4239432291546592</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1427399591543903</v>
+        <v>0.1160135421796724</v>
       </c>
       <c r="E25">
-        <v>0.09280780022775659</v>
+        <v>0.1103145980645266</v>
       </c>
       <c r="F25">
-        <v>2.792078278583261</v>
+        <v>3.395462779112734</v>
       </c>
       <c r="G25">
-        <v>0.002545572209643331</v>
+        <v>0.0008151227862388849</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.085098304383948</v>
+        <v>1.856279854411085</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8506218876936771</v>
+        <v>2.269272658615705</v>
       </c>
       <c r="L25">
-        <v>0.2895331155155674</v>
+        <v>0.3755489151286611</v>
       </c>
       <c r="M25">
-        <v>0.1843053155590155</v>
+        <v>0.1969357535741167</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3600405590653821</v>
+        <v>1.151358512712051</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1134232278422473</v>
+        <v>0.02930230274857593</v>
       </c>
       <c r="E2">
-        <v>0.09728177581274622</v>
+        <v>0.5189946577592295</v>
       </c>
       <c r="F2">
-        <v>2.993210553278772</v>
+        <v>0.5367865703592827</v>
       </c>
       <c r="G2">
-        <v>0.0008268511637466674</v>
+        <v>0.4479840826164434</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003243696514998229</v>
       </c>
       <c r="I2">
-        <v>1.721920890118099</v>
+        <v>0.01643765224184968</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2620349952249938</v>
       </c>
       <c r="K2">
-        <v>1.873952243771868</v>
+        <v>0.3321033898165471</v>
       </c>
       <c r="L2">
-        <v>0.3196454288786583</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1674310918416957</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3959626202636173</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3403154170228788</v>
+      </c>
+      <c r="P2">
+        <v>1.569556834042388</v>
+      </c>
+      <c r="Q2">
+        <v>1.451275746965706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3178097577258683</v>
+        <v>1.009193182813476</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1117703884861214</v>
+        <v>0.02546874658186482</v>
       </c>
       <c r="E3">
-        <v>0.08869397969707293</v>
+        <v>0.487714157300374</v>
       </c>
       <c r="F3">
-        <v>2.730394802747568</v>
+        <v>0.4730363138727043</v>
       </c>
       <c r="G3">
-        <v>0.0008350588471571697</v>
+        <v>0.3915127292374621</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00443247372952546</v>
       </c>
       <c r="I3">
-        <v>1.634588360969303</v>
+        <v>0.01831452019290758</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2394803367261318</v>
       </c>
       <c r="K3">
-        <v>1.612777175329143</v>
+        <v>0.3438815837001412</v>
       </c>
       <c r="L3">
-        <v>0.2829314062373953</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1479979850062243</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3454329032464756</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2974806558360825</v>
+      </c>
+      <c r="P3">
+        <v>1.504810587789052</v>
+      </c>
+      <c r="Q3">
+        <v>1.28403602364827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2923400556695555</v>
+        <v>0.9211469768975746</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1107989504414064</v>
+        <v>0.02312318438830019</v>
       </c>
       <c r="E4">
-        <v>0.08350537099865285</v>
+        <v>0.4686068370910874</v>
       </c>
       <c r="F4">
-        <v>2.573102793638128</v>
+        <v>0.4343908726914947</v>
       </c>
       <c r="G4">
-        <v>0.00084023694719345</v>
+        <v>0.3572392586058299</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005284817853596163</v>
       </c>
       <c r="I4">
-        <v>1.582554121269709</v>
+        <v>0.01959285191851645</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2259220840944494</v>
       </c>
       <c r="K4">
-        <v>1.455039904278834</v>
+        <v>0.3514847881033276</v>
       </c>
       <c r="L4">
-        <v>0.2608738051265647</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1363020163407178</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3145315662767132</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2710884906654201</v>
+      </c>
+      <c r="P4">
+        <v>1.466162055377282</v>
+      </c>
+      <c r="Q4">
+        <v>1.18279683316473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.282067119926765</v>
+        <v>0.8837761984365216</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1104130192890764</v>
+        <v>0.02218164776238396</v>
       </c>
       <c r="E5">
-        <v>0.08140734035865371</v>
+        <v>0.4612768879908273</v>
       </c>
       <c r="F5">
-        <v>2.509928706749548</v>
+        <v>0.4186121296100538</v>
       </c>
       <c r="G5">
-        <v>0.0008423833487486074</v>
+        <v>0.3432097575445141</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005664138580918021</v>
       </c>
       <c r="I5">
-        <v>1.561715411035756</v>
+        <v>0.02023754813387502</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2203860869030336</v>
       </c>
       <c r="K5">
-        <v>1.391327059786136</v>
+        <v>0.35469805999724</v>
       </c>
       <c r="L5">
-        <v>0.2519945108559654</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1315895814091732</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3024110877312012</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2602374988544298</v>
+      </c>
+      <c r="P5">
+        <v>1.452046545175634</v>
+      </c>
+      <c r="Q5">
+        <v>1.141382708817673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2803674535861802</v>
+        <v>0.8759629148731278</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.110349508718528</v>
+        <v>0.0220407533791942</v>
       </c>
       <c r="E6">
-        <v>0.08105981982706467</v>
+        <v>0.4605957666002851</v>
       </c>
       <c r="F6">
-        <v>2.499491658147022</v>
+        <v>0.4158222823455233</v>
       </c>
       <c r="G6">
-        <v>0.0008427419888090422</v>
+        <v>0.340698354387186</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005731852819716665</v>
       </c>
       <c r="I6">
-        <v>1.558276304146119</v>
+        <v>0.02046718559450156</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2193739388248304</v>
       </c>
       <c r="K6">
-        <v>1.380779200318244</v>
+        <v>0.3552682729211067</v>
       </c>
       <c r="L6">
-        <v>0.250526365778839</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1308101771127248</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3009436664036826</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2583450726302985</v>
+      </c>
+      <c r="P6">
+        <v>1.451392574751409</v>
+      </c>
+      <c r="Q6">
+        <v>1.133925872483303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2922010934778001</v>
+        <v>0.9162698478389473</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1107937066411182</v>
+        <v>0.02315249117013352</v>
       </c>
       <c r="E7">
-        <v>0.08347701600712831</v>
+        <v>0.4699762825153897</v>
       </c>
       <c r="F7">
-        <v>2.572247194681836</v>
+        <v>0.4336956441481519</v>
       </c>
       <c r="G7">
-        <v>0.000840265745555016</v>
+        <v>0.3565385801283867</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005297373855858434</v>
       </c>
       <c r="I7">
-        <v>1.582271645384282</v>
+        <v>0.0199147338846144</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2255825948783183</v>
       </c>
       <c r="K7">
-        <v>1.454178475772096</v>
+        <v>0.3516205628281588</v>
       </c>
       <c r="L7">
-        <v>0.2607536290185664</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1362382521759002</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3158546477794602</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.270697692971396</v>
+      </c>
+      <c r="P7">
+        <v>1.470574381706669</v>
+      </c>
+      <c r="Q7">
+        <v>1.180599673949445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3453778929271465</v>
+        <v>1.096665807862252</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1128437053824811</v>
+        <v>0.0280345789837142</v>
       </c>
       <c r="E8">
-        <v>0.09430013992646025</v>
+        <v>0.5101665904891277</v>
       </c>
       <c r="F8">
-        <v>2.901681504592688</v>
+        <v>0.5140560563324641</v>
       </c>
       <c r="G8">
-        <v>0.0008296533209030603</v>
+        <v>0.4277448716397032</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003634939922159464</v>
       </c>
       <c r="I8">
-        <v>1.69145788772552</v>
+        <v>0.01743835143672445</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2538452221837701</v>
       </c>
       <c r="K8">
-        <v>1.783295246745723</v>
+        <v>0.336251511007692</v>
       </c>
       <c r="L8">
-        <v>0.3068778861730266</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1606780665453762</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3804913436004114</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3252377049602586</v>
+      </c>
+      <c r="P8">
+        <v>1.553241275953226</v>
+      </c>
+      <c r="Q8">
+        <v>1.39112128509575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.453782286325179</v>
+        <v>1.452158837267092</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1172567390995383</v>
+        <v>0.03761287144151026</v>
       </c>
       <c r="E9">
-        <v>0.1164389176623288</v>
+        <v>0.5872619495950673</v>
       </c>
       <c r="F9">
-        <v>3.585115056966146</v>
+        <v>0.6770040626960707</v>
       </c>
       <c r="G9">
-        <v>0.000809870279829742</v>
+        <v>0.5719857339260415</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001395566810371396</v>
       </c>
       <c r="I9">
-        <v>1.919840815757254</v>
+        <v>0.01313231202255416</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3122738080648162</v>
       </c>
       <c r="K9">
-        <v>2.454212997831064</v>
+        <v>0.3088971359718604</v>
       </c>
       <c r="L9">
-        <v>0.4018012280044587</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2107546832493483</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5056775285755037</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4319203862566425</v>
+      </c>
+      <c r="P9">
+        <v>1.71596938855663</v>
+      </c>
+      <c r="Q9">
+        <v>1.819933614345359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5366721044922826</v>
+        <v>1.692900124517308</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1208138135450412</v>
+        <v>0.04507236334725206</v>
       </c>
       <c r="E10">
-        <v>0.1336525430666775</v>
+        <v>0.6582823400111764</v>
       </c>
       <c r="F10">
-        <v>4.117886386328138</v>
+        <v>0.7963501281418672</v>
       </c>
       <c r="G10">
-        <v>0.0007958520785427015</v>
+        <v>0.6767826869130147</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0006982928262688759</v>
       </c>
       <c r="I10">
-        <v>2.098900632918017</v>
+        <v>0.01088531602360199</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3549750099057576</v>
       </c>
       <c r="K10">
-        <v>2.970020429708029</v>
+        <v>0.2918290369590562</v>
       </c>
       <c r="L10">
-        <v>0.4752390826363211</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2492856892636155</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5835940740233099</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5017031197978312</v>
+      </c>
+      <c r="P10">
+        <v>1.865103430240083</v>
+      </c>
+      <c r="Q10">
+        <v>2.131968942310579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5752685982255912</v>
+        <v>1.670582604729674</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1225195885758765</v>
+        <v>0.05154150666061241</v>
       </c>
       <c r="E11">
-        <v>0.1417926206779327</v>
+        <v>0.8209042720331894</v>
       </c>
       <c r="F11">
-        <v>4.368910555831519</v>
+        <v>0.818530740096719</v>
       </c>
       <c r="G11">
-        <v>0.0007895591035013912</v>
+        <v>0.6901880858243032</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0193274363712419</v>
       </c>
       <c r="I11">
-        <v>2.183453802925385</v>
+        <v>0.01111187382340528</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3571438962269724</v>
       </c>
       <c r="K11">
-        <v>3.211525751394106</v>
+        <v>0.3000421250645697</v>
       </c>
       <c r="L11">
-        <v>0.5096972686187229</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2673005145601408</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4913889943017296</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4641961018630951</v>
+      </c>
+      <c r="P11">
+        <v>2.141428866888447</v>
+      </c>
+      <c r="Q11">
+        <v>2.165142296238287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5900290446523968</v>
+        <v>1.607757076916187</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.123179961201636</v>
+        <v>0.05551031685634911</v>
       </c>
       <c r="E12">
-        <v>0.1449297255044826</v>
+        <v>0.9623980653928044</v>
       </c>
       <c r="F12">
-        <v>4.465402507153982</v>
+        <v>0.8120337410282019</v>
       </c>
       <c r="G12">
-        <v>0.0007871855631944628</v>
+        <v>0.6796110319352522</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05809567113126235</v>
       </c>
       <c r="I12">
-        <v>2.215978432637741</v>
+        <v>0.01117522810510341</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3499731686844996</v>
       </c>
       <c r="K12">
-        <v>3.304144538598621</v>
+        <v>0.3179249223095617</v>
       </c>
       <c r="L12">
-        <v>0.5229201670171619</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2742024609590743</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4029157814632356</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4197615855094625</v>
+      </c>
+      <c r="P12">
+        <v>2.354519228435748</v>
+      </c>
+      <c r="Q12">
+        <v>2.127794522188822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5868433897656473</v>
+        <v>1.503703584115556</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1230370645931771</v>
+        <v>0.05780776766917484</v>
       </c>
       <c r="E13">
-        <v>0.1442514863359392</v>
+        <v>1.096420141028986</v>
       </c>
       <c r="F13">
-        <v>4.444554180180205</v>
+        <v>0.7819706829252198</v>
       </c>
       <c r="G13">
-        <v>0.0007876963711910126</v>
+        <v>0.6488756808954292</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1139857639116428</v>
       </c>
       <c r="I13">
-        <v>2.20895011580761</v>
+        <v>0.01157476089463483</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3346284096771512</v>
       </c>
       <c r="K13">
-        <v>3.284142463488763</v>
+        <v>0.3438235852659872</v>
       </c>
       <c r="L13">
-        <v>0.5200642257743198</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2727122660472645</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3150335997023745</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3673390041892617</v>
+      </c>
+      <c r="P13">
+        <v>2.535701573194245</v>
+      </c>
+      <c r="Q13">
+        <v>2.030507971078038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5764799438015302</v>
+        <v>1.411590917071067</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1225736172629368</v>
+        <v>0.05867338731711413</v>
       </c>
       <c r="E14">
-        <v>0.1420495537975448</v>
+        <v>1.189305183925839</v>
       </c>
       <c r="F14">
-        <v>4.376819091848034</v>
+        <v>0.7502170206059304</v>
       </c>
       <c r="G14">
-        <v>0.0007893636571160375</v>
+        <v>0.6182198180874678</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1634461932976734</v>
       </c>
       <c r="I14">
-        <v>2.186119106034013</v>
+        <v>0.01210564990632967</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3201619197448906</v>
       </c>
       <c r="K14">
-        <v>3.219121077127056</v>
+        <v>0.3665561734759848</v>
       </c>
       <c r="L14">
-        <v>0.5107814875259891</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2678666739114206</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2557654165696306</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3275257431883745</v>
+      </c>
+      <c r="P14">
+        <v>2.650704891082313</v>
+      </c>
+      <c r="Q14">
+        <v>1.935188233761011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5701514230119642</v>
+        <v>1.378991130549252</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1222916802201723</v>
+        <v>0.05852135478507847</v>
       </c>
       <c r="E15">
-        <v>0.1407082478839072</v>
+        <v>1.208310272679412</v>
       </c>
       <c r="F15">
-        <v>4.33552221307886</v>
+        <v>0.7373964306322307</v>
       </c>
       <c r="G15">
-        <v>0.0007903860690264989</v>
+        <v>0.6063649175202954</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1760100371853639</v>
       </c>
       <c r="I15">
-        <v>2.172202295639778</v>
+        <v>0.01245714299440603</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3148589176303886</v>
       </c>
       <c r="K15">
-        <v>3.179451159579514</v>
+        <v>0.3731822685143307</v>
       </c>
       <c r="L15">
-        <v>0.5051189823191038</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2649093634416282</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2409075706501653</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3159406482564364</v>
+      </c>
+      <c r="P15">
+        <v>2.671554846706528</v>
+      </c>
+      <c r="Q15">
+        <v>1.898923150189404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5341690334111036</v>
+        <v>1.296960262402507</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.120704251973514</v>
+        <v>0.05476532563374548</v>
       </c>
       <c r="E16">
-        <v>0.1331276300801605</v>
+        <v>1.146987172583394</v>
       </c>
       <c r="F16">
-        <v>4.101671316126442</v>
+        <v>0.6913759771979926</v>
       </c>
       <c r="G16">
-        <v>0.0007962648136961935</v>
+        <v>0.5669133081176341</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1635911361034914</v>
       </c>
       <c r="I16">
-        <v>2.093442253279477</v>
+        <v>0.0135527085996463</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2992094210258216</v>
       </c>
       <c r="K16">
-        <v>2.954390371723633</v>
+        <v>0.3735804770153166</v>
       </c>
       <c r="L16">
-        <v>0.4730102277050179</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2481190132266136</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2283863759308389</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2979179565149792</v>
+      </c>
+      <c r="P16">
+        <v>2.56466271395945</v>
+      </c>
+      <c r="Q16">
+        <v>1.782325633704289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5123342695377744</v>
+        <v>1.282332196108257</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1197540952484459</v>
+        <v>0.05143696430111078</v>
       </c>
       <c r="E17">
-        <v>0.1285631891281014</v>
+        <v>1.049637776459306</v>
       </c>
       <c r="F17">
-        <v>3.96055757514236</v>
+        <v>0.6731718720392763</v>
       </c>
       <c r="G17">
-        <v>0.000799890984833737</v>
+        <v>0.5531016334024343</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1260035286286865</v>
       </c>
       <c r="I17">
-        <v>2.045960008564862</v>
+        <v>0.01413621091669448</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2949956751687495</v>
       </c>
       <c r="K17">
-        <v>2.818200855022042</v>
+        <v>0.3615217357116194</v>
       </c>
       <c r="L17">
-        <v>0.4535973741004256</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2379502132336029</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2492229538684398</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3048362841303103</v>
+      </c>
+      <c r="P17">
+        <v>2.422019391401534</v>
+      </c>
+      <c r="Q17">
+        <v>1.744093931387567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4998581012468719</v>
+        <v>1.327863926784858</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.119215717587025</v>
+        <v>0.04810755229824082</v>
       </c>
       <c r="E18">
-        <v>0.1259662887735438</v>
+        <v>0.9176601078694802</v>
       </c>
       <c r="F18">
-        <v>3.88019559826995</v>
+        <v>0.6767864062219076</v>
       </c>
       <c r="G18">
-        <v>0.0008019847396070319</v>
+        <v>0.5598852043321898</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07320792186054348</v>
       </c>
       <c r="I18">
-        <v>2.018937050210553</v>
+        <v>0.01395008916737606</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3001492267901824</v>
       </c>
       <c r="K18">
-        <v>2.740502133179461</v>
+        <v>0.3400612858616121</v>
       </c>
       <c r="L18">
-        <v>0.4425289901666787</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2321465456603562</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3046510403993636</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3352082544755746</v>
+      </c>
+      <c r="P18">
+        <v>2.234970163956433</v>
+      </c>
+      <c r="Q18">
+        <v>1.769182580774526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4956475885223597</v>
+        <v>1.411742501159011</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1190347759562727</v>
+        <v>0.0451791694640491</v>
       </c>
       <c r="E19">
-        <v>0.1250916236252344</v>
+        <v>0.78579360970393</v>
       </c>
       <c r="F19">
-        <v>3.853118932549734</v>
+        <v>0.6966378922725198</v>
       </c>
       <c r="G19">
-        <v>0.000802695110721378</v>
+        <v>0.5818106828229617</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02775669910090528</v>
       </c>
       <c r="I19">
-        <v>2.00983519449872</v>
+        <v>0.01373495990590978</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3119092514713202</v>
       </c>
       <c r="K19">
-        <v>2.714298456473614</v>
+        <v>0.3195402021660829</v>
       </c>
       <c r="L19">
-        <v>0.4387974872898042</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2301889899087755</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3930761828200104</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3836677917364071</v>
+      </c>
+      <c r="P19">
+        <v>2.048607653255857</v>
+      </c>
+      <c r="Q19">
+        <v>1.840250929209645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5146499510986473</v>
+        <v>1.615507991482957</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1198543873752698</v>
+        <v>0.04325542537013405</v>
       </c>
       <c r="E20">
-        <v>0.1290460690240742</v>
+        <v>0.6450067692735928</v>
       </c>
       <c r="F20">
-        <v>3.975494980924111</v>
+        <v>0.7630750780204067</v>
       </c>
       <c r="G20">
-        <v>0.0007995041545890093</v>
+        <v>0.6472642121206604</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0008252552286713843</v>
       </c>
       <c r="I20">
-        <v>2.050984394382141</v>
+        <v>0.0123712891451726</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3427177149960983</v>
       </c>
       <c r="K20">
-        <v>2.832631630946253</v>
+        <v>0.2969136251652298</v>
       </c>
       <c r="L20">
-        <v>0.4556536681451462</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.239027956198079</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.567117875025076</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4822973803463597</v>
+      </c>
+      <c r="P20">
+        <v>1.841953838047573</v>
+      </c>
+      <c r="Q20">
+        <v>2.043609206994574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5795198656113314</v>
+        <v>1.823844760997815</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1227093355354327</v>
+        <v>0.04846941709100605</v>
       </c>
       <c r="E21">
-        <v>0.142694743729983</v>
+        <v>0.6791431837420845</v>
       </c>
       <c r="F21">
-        <v>4.396673975617631</v>
+        <v>0.862051524194527</v>
       </c>
       <c r="G21">
-        <v>0.0007888737001531925</v>
+        <v>0.7352811333173861</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001900708917874638</v>
       </c>
       <c r="I21">
-        <v>2.192810870189803</v>
+        <v>0.01053726305799518</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3794226067681876</v>
       </c>
       <c r="K21">
-        <v>3.238186245881423</v>
+        <v>0.2828418415015719</v>
       </c>
       <c r="L21">
-        <v>0.5135031224095314</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2692876807814883</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6505026683977349</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5483342906133046</v>
+      </c>
+      <c r="P21">
+        <v>1.92274472038099</v>
+      </c>
+      <c r="Q21">
+        <v>2.307393303366439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6227692976777917</v>
+        <v>1.957798217472714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1246603589816502</v>
+        <v>0.05200922569444799</v>
       </c>
       <c r="E22">
-        <v>0.1519392410235731</v>
+        <v>0.7061746727195768</v>
       </c>
       <c r="F22">
-        <v>4.68040560360015</v>
+        <v>0.9264075523517334</v>
       </c>
       <c r="G22">
-        <v>0.0007819798517230137</v>
+        <v>0.7922742144320836</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.739827324722445E-05</v>
       </c>
       <c r="I22">
-        <v>2.288486601187159</v>
+        <v>0.009150687103836042</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4032003631378842</v>
       </c>
       <c r="K22">
-        <v>3.510136517573073</v>
+        <v>0.2742553863470629</v>
       </c>
       <c r="L22">
-        <v>0.5523401182249614</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.289536759816869</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6952520676263418</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5876638935890028</v>
+      </c>
+      <c r="P22">
+        <v>1.981003391588928</v>
+      </c>
+      <c r="Q22">
+        <v>2.478215791571273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.599602113921577</v>
+        <v>1.89165678085422</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1236106022684638</v>
+        <v>0.05006720394695918</v>
       </c>
       <c r="E23">
-        <v>0.1469718483285689</v>
+        <v>0.6898632398719116</v>
       </c>
       <c r="F23">
-        <v>4.528129327586328</v>
+        <v>0.8925404494052174</v>
       </c>
       <c r="G23">
-        <v>0.0007856552539190929</v>
+        <v>0.7623836530398478</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001031286090045214</v>
       </c>
       <c r="I23">
-        <v>2.237127656848486</v>
+        <v>0.00952344654541637</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3907752784622573</v>
       </c>
       <c r="K23">
-        <v>3.364294960199743</v>
+        <v>0.2785297391199473</v>
       </c>
       <c r="L23">
-        <v>0.5315094957278035</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2786825428486495</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6695546075885233</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5669793529800984</v>
+      </c>
+      <c r="P23">
+        <v>1.94384321311162</v>
+      </c>
+      <c r="Q23">
+        <v>2.388719708832184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5136027931028195</v>
+        <v>1.631416752694122</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1198090208957439</v>
+        <v>0.04283156732670079</v>
       </c>
       <c r="E24">
-        <v>0.128827674866919</v>
+        <v>0.631492349014124</v>
       </c>
       <c r="F24">
-        <v>3.968739407216418</v>
+        <v>0.7652648110734219</v>
       </c>
       <c r="G24">
-        <v>0.0007996790123279141</v>
+        <v>0.6498761459124154</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006675899808853414</v>
       </c>
       <c r="I24">
-        <v>2.048712016814122</v>
+        <v>0.01175673047825132</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3441677627643855</v>
       </c>
       <c r="K24">
-        <v>2.826105626369923</v>
+        <v>0.2959387161370017</v>
       </c>
       <c r="L24">
-        <v>0.4547237317560899</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2385405769406965</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5754511618908964</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4880461628283044</v>
+      </c>
+      <c r="P24">
+        <v>1.814908140990042</v>
+      </c>
+      <c r="Q24">
+        <v>2.052175623316771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4239432291546592</v>
+        <v>1.348641420885343</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1160135421796724</v>
+        <v>0.03508801634534819</v>
       </c>
       <c r="E25">
-        <v>0.1103145980645266</v>
+        <v>0.5690470748376342</v>
       </c>
       <c r="F25">
-        <v>3.395462779112734</v>
+        <v>0.6314848580872336</v>
       </c>
       <c r="G25">
-        <v>0.0008151227862388849</v>
+        <v>0.5315652958069705</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001889105599189977</v>
       </c>
       <c r="I25">
-        <v>1.856279854411085</v>
+        <v>0.01470853619621781</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2956853797079617</v>
       </c>
       <c r="K25">
-        <v>2.269272658615705</v>
+        <v>0.3162739974112938</v>
       </c>
       <c r="L25">
-        <v>0.3755489151286611</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.1969357535741167</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4743980966153458</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4026806839339727</v>
+      </c>
+      <c r="P25">
+        <v>1.67971592647298</v>
+      </c>
+      <c r="Q25">
+        <v>1.699333014030202</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.151358512712051</v>
+        <v>1.173358623520301</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02930230274857593</v>
+        <v>0.02922402657716106</v>
       </c>
       <c r="E2">
-        <v>0.5189946577592295</v>
+        <v>0.4725544899337635</v>
       </c>
       <c r="F2">
-        <v>0.5367865703592827</v>
+        <v>0.5416106208126834</v>
       </c>
       <c r="G2">
-        <v>0.4479840826164434</v>
+        <v>0.4515137922295196</v>
       </c>
       <c r="H2">
-        <v>0.003243696514998229</v>
+        <v>0.002123519458805845</v>
       </c>
       <c r="I2">
-        <v>0.01643765224184968</v>
+        <v>0.01124754720098675</v>
       </c>
       <c r="J2">
-        <v>0.2620349952249938</v>
+        <v>0.3127719440103789</v>
       </c>
       <c r="K2">
-        <v>0.3321033898165471</v>
+        <v>0.2972446663287327</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1217254790817957</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1032872634996149</v>
       </c>
       <c r="N2">
-        <v>0.3959626202636173</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3403154170228788</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.569556834042388</v>
+        <v>0.386314739160639</v>
       </c>
       <c r="Q2">
-        <v>1.451275746965706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3429054236709703</v>
+      </c>
+      <c r="R2">
+        <v>1.495608234141841</v>
+      </c>
+      <c r="S2">
+        <v>1.469966670700728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.009193182813476</v>
+        <v>1.032284736676218</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02546874658186482</v>
+        <v>0.02533634459844336</v>
       </c>
       <c r="E3">
-        <v>0.487714157300374</v>
+        <v>0.4411083951209989</v>
       </c>
       <c r="F3">
-        <v>0.4730363138727043</v>
+        <v>0.4785581797912499</v>
       </c>
       <c r="G3">
-        <v>0.3915127292374621</v>
+        <v>0.3932600148910268</v>
       </c>
       <c r="H3">
-        <v>0.00443247372952546</v>
+        <v>0.003039755711084724</v>
       </c>
       <c r="I3">
-        <v>0.01831452019290758</v>
+        <v>0.01256807343546029</v>
       </c>
       <c r="J3">
-        <v>0.2394803367261318</v>
+        <v>0.2905836779179367</v>
       </c>
       <c r="K3">
-        <v>0.3438815837001412</v>
+        <v>0.3072545906529669</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1249609834334736</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1094011477982981</v>
       </c>
       <c r="N3">
-        <v>0.3454329032464756</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2974806558360825</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.504810587789052</v>
+        <v>0.3353218273969247</v>
       </c>
       <c r="Q3">
-        <v>1.28403602364827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3000615170551768</v>
+      </c>
+      <c r="R3">
+        <v>1.426413531969473</v>
+      </c>
+      <c r="S3">
+        <v>1.304901366989583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9211469768975746</v>
+        <v>0.9446421007354218</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02312318438830019</v>
+        <v>0.02296002274969666</v>
       </c>
       <c r="E4">
-        <v>0.4686068370910874</v>
+        <v>0.4219915289603335</v>
       </c>
       <c r="F4">
-        <v>0.4343908726914947</v>
+        <v>0.4402816505155229</v>
       </c>
       <c r="G4">
-        <v>0.3572392586058299</v>
+        <v>0.3579204352081291</v>
       </c>
       <c r="H4">
-        <v>0.005284817853596163</v>
+        <v>0.003707757398160788</v>
       </c>
       <c r="I4">
-        <v>0.01959285191851645</v>
+        <v>0.0134843601019683</v>
       </c>
       <c r="J4">
-        <v>0.2259220840944494</v>
+        <v>0.2770942221643509</v>
       </c>
       <c r="K4">
-        <v>0.3514847881033276</v>
+        <v>0.3137458752806186</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1273966726199669</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1134656237068681</v>
       </c>
       <c r="N4">
-        <v>0.3145315662767132</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2710884906654201</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.466162055377282</v>
+        <v>0.3042128315186972</v>
       </c>
       <c r="Q4">
-        <v>1.18279683316473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2736432597489298</v>
+      </c>
+      <c r="R4">
+        <v>1.385258231735406</v>
+      </c>
+      <c r="S4">
+        <v>1.204796236852616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8837761984365216</v>
+        <v>0.9074331545436962</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02218164776238396</v>
+        <v>0.02200554669870414</v>
       </c>
       <c r="E5">
-        <v>0.4612768879908273</v>
+        <v>0.414631093269076</v>
       </c>
       <c r="F5">
-        <v>0.4186121296100538</v>
+        <v>0.4246483696622931</v>
       </c>
       <c r="G5">
-        <v>0.3432097575445141</v>
+        <v>0.3434728254668755</v>
       </c>
       <c r="H5">
-        <v>0.005664138580918021</v>
+        <v>0.004007398553866198</v>
       </c>
       <c r="I5">
-        <v>0.02023754813387502</v>
+        <v>0.01398632508917874</v>
       </c>
       <c r="J5">
-        <v>0.2203860869030336</v>
+        <v>0.2715521359317279</v>
       </c>
       <c r="K5">
-        <v>0.35469805999724</v>
+        <v>0.3164656699114117</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1284287467960952</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.11526360738329</v>
       </c>
       <c r="N5">
-        <v>0.3024110877312012</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2602374988544298</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.452046545175634</v>
+        <v>0.291989837492153</v>
       </c>
       <c r="Q5">
-        <v>1.141382708817673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2627813089304993</v>
+      </c>
+      <c r="R5">
+        <v>1.370035288530985</v>
+      </c>
+      <c r="S5">
+        <v>1.16382712644284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8759629148731278</v>
+        <v>0.8997214728442486</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0220407533791942</v>
+        <v>0.02186129642414159</v>
       </c>
       <c r="E6">
-        <v>0.4605957666002851</v>
+        <v>0.4138850386596395</v>
       </c>
       <c r="F6">
-        <v>0.4158222823455233</v>
+        <v>0.4218931494688505</v>
       </c>
       <c r="G6">
-        <v>0.340698354387186</v>
+        <v>0.340905462115515</v>
       </c>
       <c r="H6">
-        <v>0.005731852819716665</v>
+        <v>0.004061124841151786</v>
       </c>
       <c r="I6">
-        <v>0.02046718559450156</v>
+        <v>0.01420550146152078</v>
       </c>
       <c r="J6">
-        <v>0.2193739388248304</v>
+        <v>0.2705401975954373</v>
       </c>
       <c r="K6">
-        <v>0.3552682729211067</v>
+        <v>0.3169120002134047</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1285194003393597</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1156450981042729</v>
       </c>
       <c r="N6">
-        <v>0.3009436664036826</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2583450726302985</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.451392574751409</v>
+        <v>0.2904608477408601</v>
       </c>
       <c r="Q6">
-        <v>1.133925872483303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.260892452197254</v>
+      </c>
+      <c r="R6">
+        <v>1.369025523541296</v>
+      </c>
+      <c r="S6">
+        <v>1.156478852141873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9162698478389473</v>
+        <v>0.9397630477763528</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02315249117013352</v>
+        <v>0.02308186358686015</v>
       </c>
       <c r="E7">
-        <v>0.4699762825153897</v>
+        <v>0.4227271911149373</v>
       </c>
       <c r="F7">
-        <v>0.4336956441481519</v>
+        <v>0.438532550109187</v>
       </c>
       <c r="G7">
-        <v>0.3565385801283867</v>
+        <v>0.3607714230535066</v>
       </c>
       <c r="H7">
-        <v>0.005297373855858434</v>
+        <v>0.00372050106902902</v>
       </c>
       <c r="I7">
-        <v>0.0199147338846144</v>
+        <v>0.01384161581649757</v>
       </c>
       <c r="J7">
-        <v>0.2255825948783183</v>
+        <v>0.2712211995812623</v>
       </c>
       <c r="K7">
-        <v>0.3516205628281588</v>
+        <v>0.3137735976951936</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.127185852001523</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1137029310801028</v>
       </c>
       <c r="N7">
-        <v>0.3158546477794602</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.270697692971396</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.470574381706669</v>
+        <v>0.305096292142693</v>
       </c>
       <c r="Q7">
-        <v>1.180599673949445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2731152165617559</v>
+      </c>
+      <c r="R7">
+        <v>1.389506630152098</v>
+      </c>
+      <c r="S7">
+        <v>1.199026376049687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.096665807862252</v>
+        <v>1.118662183859158</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0280345789837142</v>
+        <v>0.02825639700469651</v>
       </c>
       <c r="E8">
-        <v>0.5101665904891277</v>
+        <v>0.4618637649704311</v>
       </c>
       <c r="F8">
-        <v>0.5140560563324641</v>
+        <v>0.5155366184797288</v>
       </c>
       <c r="G8">
-        <v>0.4277448716397032</v>
+        <v>0.4425387555938016</v>
       </c>
       <c r="H8">
-        <v>0.003634939922159464</v>
+        <v>0.002429458037869092</v>
       </c>
       <c r="I8">
-        <v>0.01743835143672445</v>
+        <v>0.01211237728868575</v>
       </c>
       <c r="J8">
-        <v>0.2538452221837701</v>
+        <v>0.2864694786025694</v>
       </c>
       <c r="K8">
-        <v>0.336251511007692</v>
+        <v>0.300705779455555</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1225636543634203</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1055695967289667</v>
       </c>
       <c r="N8">
-        <v>0.3804913436004114</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3252377049602586</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.553241275953226</v>
+        <v>0.3694514427406403</v>
       </c>
       <c r="Q8">
-        <v>1.39112128509575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.327338537200113</v>
+      </c>
+      <c r="R8">
+        <v>1.478232111674501</v>
+      </c>
+      <c r="S8">
+        <v>1.398429401243305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.452158837267092</v>
+        <v>1.469476689051845</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03761287144151026</v>
+        <v>0.03808398951187542</v>
       </c>
       <c r="E9">
-        <v>0.5872619495950673</v>
+        <v>0.5395765467360505</v>
       </c>
       <c r="F9">
-        <v>0.6770040626960707</v>
+        <v>0.6752705557942278</v>
       </c>
       <c r="G9">
-        <v>0.5719857339260415</v>
+        <v>0.5948368575653404</v>
       </c>
       <c r="H9">
-        <v>0.001395566810371396</v>
+        <v>0.000769024218259251</v>
       </c>
       <c r="I9">
-        <v>0.01313231202255416</v>
+        <v>0.009036104813421986</v>
       </c>
       <c r="J9">
-        <v>0.3122738080648162</v>
+        <v>0.3377334684078761</v>
       </c>
       <c r="K9">
-        <v>0.3088971359718604</v>
+        <v>0.2777708290584977</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1172999941209616</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09179638686524427</v>
       </c>
       <c r="N9">
-        <v>0.5056775285755037</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4319203862566425</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.71596938855663</v>
+        <v>0.4960412589349517</v>
       </c>
       <c r="Q9">
-        <v>1.819933614345359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.433755206488101</v>
+      </c>
+      <c r="R9">
+        <v>1.654193190781356</v>
+      </c>
+      <c r="S9">
+        <v>1.81685731697533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.692900124517308</v>
+        <v>1.706859590726793</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04507236334725206</v>
+        <v>0.0463067249716218</v>
       </c>
       <c r="E10">
-        <v>0.6582823400111764</v>
+        <v>0.6072898746697888</v>
       </c>
       <c r="F10">
-        <v>0.7963501281418672</v>
+        <v>0.7856508270111107</v>
       </c>
       <c r="G10">
-        <v>0.6767826869130147</v>
+        <v>0.7276498417808455</v>
       </c>
       <c r="H10">
-        <v>0.0006982928262688759</v>
+        <v>0.0003839449701787956</v>
       </c>
       <c r="I10">
-        <v>0.01088531602360199</v>
+        <v>0.007586462054805843</v>
       </c>
       <c r="J10">
-        <v>0.3549750099057576</v>
+        <v>0.3430447369435115</v>
       </c>
       <c r="K10">
-        <v>0.2918290369590562</v>
+        <v>0.2636770601709939</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1160486594791594</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0834832927712581</v>
       </c>
       <c r="N10">
-        <v>0.5835940740233099</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5017031197978312</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.865103430240083</v>
+        <v>0.5725655580458522</v>
       </c>
       <c r="Q10">
-        <v>2.131968942310579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5024483868047938</v>
+      </c>
+      <c r="R10">
+        <v>1.81286043555022</v>
+      </c>
+      <c r="S10">
+        <v>2.098998676998576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.670582604729674</v>
+        <v>1.703124730383053</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05154150666061241</v>
+        <v>0.05402246997620352</v>
       </c>
       <c r="E11">
-        <v>0.8209042720331894</v>
+        <v>0.749208167762994</v>
       </c>
       <c r="F11">
-        <v>0.818530740096719</v>
+        <v>0.7950967194069705</v>
       </c>
       <c r="G11">
-        <v>0.6901880858243032</v>
+        <v>0.7940130958107687</v>
       </c>
       <c r="H11">
-        <v>0.0193274363712419</v>
+        <v>0.01900452074364978</v>
       </c>
       <c r="I11">
-        <v>0.01111187382340528</v>
+        <v>0.008057168463679432</v>
       </c>
       <c r="J11">
-        <v>0.3571438962269724</v>
+        <v>0.2814158128455233</v>
       </c>
       <c r="K11">
-        <v>0.3000421250645697</v>
+        <v>0.2700741364980939</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.121689073617695</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08343021639316639</v>
       </c>
       <c r="N11">
-        <v>0.4913889943017296</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4641961018630951</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2.141428866888447</v>
+        <v>0.4705648974029657</v>
       </c>
       <c r="Q11">
-        <v>2.165142296238287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4640877083852715</v>
+      </c>
+      <c r="R11">
+        <v>2.066931568656059</v>
+      </c>
+      <c r="S11">
+        <v>2.089820167888178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.607757076916187</v>
+        <v>1.656852672932303</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05551031685634911</v>
+        <v>0.05854881771519871</v>
       </c>
       <c r="E12">
-        <v>0.9623980653928044</v>
+        <v>0.8719665183612477</v>
       </c>
       <c r="F12">
-        <v>0.8120337410282019</v>
+        <v>0.7838369014494901</v>
       </c>
       <c r="G12">
-        <v>0.6796110319352522</v>
+        <v>0.8085039978934532</v>
       </c>
       <c r="H12">
-        <v>0.05809567113126235</v>
+        <v>0.05774643813094116</v>
       </c>
       <c r="I12">
-        <v>0.01117522810510341</v>
+        <v>0.008113775415223401</v>
       </c>
       <c r="J12">
-        <v>0.3499731686844996</v>
+        <v>0.2488668960209424</v>
       </c>
       <c r="K12">
-        <v>0.3179249223095617</v>
+        <v>0.2837964795212642</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1289450865289101</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08676428362597655</v>
       </c>
       <c r="N12">
-        <v>0.4029157814632356</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4197615855094625</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.354519228435748</v>
+        <v>0.3769710477636892</v>
       </c>
       <c r="Q12">
-        <v>2.127794522188822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4197200113295523</v>
+      </c>
+      <c r="R12">
+        <v>2.254304439939574</v>
+      </c>
+      <c r="S12">
+        <v>2.0369832238963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.503703584115556</v>
+        <v>1.569539809172852</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05780776766917484</v>
+        <v>0.06052723044136599</v>
       </c>
       <c r="E13">
-        <v>1.096420141028986</v>
+        <v>0.9904146954864643</v>
       </c>
       <c r="F13">
-        <v>0.7819706829252198</v>
+        <v>0.7577297433714989</v>
       </c>
       <c r="G13">
-        <v>0.6488756808954292</v>
+        <v>0.7723387576599379</v>
       </c>
       <c r="H13">
-        <v>0.1139857639116428</v>
+        <v>0.1135850660246831</v>
       </c>
       <c r="I13">
-        <v>0.01157476089463483</v>
+        <v>0.008372958182860657</v>
       </c>
       <c r="J13">
-        <v>0.3346284096771512</v>
+        <v>0.243550683632364</v>
       </c>
       <c r="K13">
-        <v>0.3438235852659872</v>
+        <v>0.3029677869708323</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1366673094401634</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09319934723427892</v>
       </c>
       <c r="N13">
-        <v>0.3150335997023745</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3673390041892617</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2.535701573194245</v>
+        <v>0.2874418109513783</v>
       </c>
       <c r="Q13">
-        <v>2.030507971078038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3683322616985691</v>
+      </c>
+      <c r="R13">
+        <v>2.403385692308177</v>
+      </c>
+      <c r="S13">
+        <v>1.953190741807362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411590917071067</v>
+        <v>1.488975390317052</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05867338731711413</v>
+        <v>0.06075932964371589</v>
       </c>
       <c r="E14">
-        <v>1.189305183925839</v>
+        <v>1.073933146930031</v>
       </c>
       <c r="F14">
-        <v>0.7502170206059304</v>
+        <v>0.732435654310521</v>
       </c>
       <c r="G14">
-        <v>0.6182198180874678</v>
+        <v>0.7250709697530766</v>
       </c>
       <c r="H14">
-        <v>0.1634461932976734</v>
+        <v>0.1629980571713787</v>
       </c>
       <c r="I14">
-        <v>0.01210564990632967</v>
+        <v>0.008758187740856904</v>
       </c>
       <c r="J14">
-        <v>0.3201619197448906</v>
+        <v>0.2509909227102867</v>
       </c>
       <c r="K14">
-        <v>0.3665561734759848</v>
+        <v>0.3193524407994595</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1422039277956024</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09956534562799391</v>
       </c>
       <c r="N14">
-        <v>0.2557654165696306</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3275257431883745</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2.650704891082313</v>
+        <v>0.2284896458269827</v>
       </c>
       <c r="Q14">
-        <v>1.935188233761011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3295674288414148</v>
+      </c>
+      <c r="R14">
+        <v>2.492228775747463</v>
+      </c>
+      <c r="S14">
+        <v>1.879440103656293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.378991130549252</v>
+        <v>1.459208656978092</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05852135478507847</v>
+        <v>0.06028027215657517</v>
       </c>
       <c r="E15">
-        <v>1.208310272679412</v>
+        <v>1.091770867071986</v>
       </c>
       <c r="F15">
-        <v>0.7373964306322307</v>
+        <v>0.7227653770997762</v>
       </c>
       <c r="G15">
-        <v>0.6063649175202954</v>
+        <v>0.703815691006298</v>
       </c>
       <c r="H15">
-        <v>0.1760100371853639</v>
+        <v>0.1755380218708638</v>
       </c>
       <c r="I15">
-        <v>0.01245714299440603</v>
+        <v>0.009061603191219625</v>
       </c>
       <c r="J15">
-        <v>0.3148589176303886</v>
+        <v>0.257582793064131</v>
       </c>
       <c r="K15">
-        <v>0.3731822685143307</v>
+        <v>0.324015846290763</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1433392000970528</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1017313515484251</v>
       </c>
       <c r="N15">
-        <v>0.2409075706501653</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3159406482564364</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.671554846706528</v>
+        <v>0.2140909362483256</v>
       </c>
       <c r="Q15">
-        <v>1.898923150189404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3183889019230151</v>
+      </c>
+      <c r="R15">
+        <v>2.505676578236802</v>
+      </c>
+      <c r="S15">
+        <v>1.853615142317125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.296960262402507</v>
+        <v>1.376626154101842</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05476532563374548</v>
+        <v>0.05516380628218798</v>
       </c>
       <c r="E16">
-        <v>1.146987172583394</v>
+        <v>1.042524835651406</v>
       </c>
       <c r="F16">
-        <v>0.6913759771979926</v>
+        <v>0.6896663294795644</v>
       </c>
       <c r="G16">
-        <v>0.5669133081176341</v>
+        <v>0.6203933622838207</v>
       </c>
       <c r="H16">
-        <v>0.1635911361034914</v>
+        <v>0.1629759644676199</v>
       </c>
       <c r="I16">
-        <v>0.0135527085996463</v>
+        <v>0.009851933701511939</v>
       </c>
       <c r="J16">
-        <v>0.2992094210258216</v>
+        <v>0.2982117180310127</v>
       </c>
       <c r="K16">
-        <v>0.3735804770153166</v>
+        <v>0.3233299664091938</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.138944213349756</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1047694122332015</v>
       </c>
       <c r="N16">
-        <v>0.2283863759308389</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2979179565149792</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2.56466271395945</v>
+        <v>0.2045494629216904</v>
       </c>
       <c r="Q16">
-        <v>1.782325633704289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3016615049056313</v>
+      </c>
+      <c r="R16">
+        <v>2.396357313583593</v>
+      </c>
+      <c r="S16">
+        <v>1.779679135019506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.282332196108257</v>
+        <v>1.355322225673802</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05143696430111078</v>
+        <v>0.05135648263486559</v>
       </c>
       <c r="E17">
-        <v>1.049637776459306</v>
+        <v>0.9576886507355766</v>
       </c>
       <c r="F17">
-        <v>0.6731718720392763</v>
+        <v>0.6762644124801511</v>
       </c>
       <c r="G17">
-        <v>0.5531016334024343</v>
+        <v>0.5873449991852482</v>
       </c>
       <c r="H17">
-        <v>0.1260035286286865</v>
+        <v>0.1253010357191755</v>
       </c>
       <c r="I17">
-        <v>0.01413621091669448</v>
+        <v>0.01028230840106126</v>
       </c>
       <c r="J17">
-        <v>0.2949956751687495</v>
+        <v>0.3191664081329435</v>
       </c>
       <c r="K17">
-        <v>0.3615217357116194</v>
+        <v>0.314347558929942</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1332324756942356</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1034032427876994</v>
       </c>
       <c r="N17">
-        <v>0.2492229538684398</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3048362841303103</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.422019391401534</v>
+        <v>0.2272554773002611</v>
       </c>
       <c r="Q17">
-        <v>1.744093931387567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3089116136130059</v>
+      </c>
+      <c r="R17">
+        <v>2.267213143788894</v>
+      </c>
+      <c r="S17">
+        <v>1.757334138639976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.327863926784858</v>
+        <v>1.38831944953705</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04810755229824082</v>
+        <v>0.04796889524647696</v>
       </c>
       <c r="E18">
-        <v>0.9176601078694802</v>
+        <v>0.8406836601042258</v>
       </c>
       <c r="F18">
-        <v>0.6767864062219076</v>
+        <v>0.6807881104690239</v>
       </c>
       <c r="G18">
-        <v>0.5598852043321898</v>
+        <v>0.5847811640710745</v>
       </c>
       <c r="H18">
-        <v>0.07320792186054348</v>
+        <v>0.07248436327320462</v>
       </c>
       <c r="I18">
-        <v>0.01395008916737606</v>
+        <v>0.0100261537789601</v>
       </c>
       <c r="J18">
-        <v>0.3001492267901824</v>
+        <v>0.3347569627013769</v>
       </c>
       <c r="K18">
-        <v>0.3400612858616121</v>
+        <v>0.2989200471887692</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1264568896238174</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09852967232185605</v>
       </c>
       <c r="N18">
-        <v>0.3046510403993636</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3352082544755746</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.234970163956433</v>
+        <v>0.2849863523365741</v>
       </c>
       <c r="Q18">
-        <v>1.769182580774526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3390868543220122</v>
+      </c>
+      <c r="R18">
+        <v>2.106344870325813</v>
+      </c>
+      <c r="S18">
+        <v>1.785475687408649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.411742501159011</v>
+        <v>1.455867475208578</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0451791694640491</v>
+        <v>0.04519114693268023</v>
       </c>
       <c r="E19">
-        <v>0.78579360970393</v>
+        <v>0.723007923207355</v>
       </c>
       <c r="F19">
-        <v>0.6966378922725198</v>
+        <v>0.6994105542179199</v>
       </c>
       <c r="G19">
-        <v>0.5818106828229617</v>
+        <v>0.6025875890456405</v>
       </c>
       <c r="H19">
-        <v>0.02775669910090528</v>
+        <v>0.0270959630381995</v>
       </c>
       <c r="I19">
-        <v>0.01373495990590978</v>
+        <v>0.009930460438750011</v>
       </c>
       <c r="J19">
-        <v>0.3119092514713202</v>
+        <v>0.3487564145173963</v>
       </c>
       <c r="K19">
-        <v>0.3195402021660829</v>
+        <v>0.2843463428790436</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1210123155931591</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09311382392884227</v>
       </c>
       <c r="N19">
-        <v>0.3930761828200104</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3836677917364071</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2.048607653255857</v>
+        <v>0.3767744824106103</v>
       </c>
       <c r="Q19">
-        <v>1.840250929209645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3869961797390076</v>
+      </c>
+      <c r="R19">
+        <v>1.94983714435034</v>
+      </c>
+      <c r="S19">
+        <v>1.852490073332717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.615507991482957</v>
+        <v>1.632230155738284</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04325542537013405</v>
+        <v>0.04391195171837126</v>
       </c>
       <c r="E20">
-        <v>0.6450067692735928</v>
+        <v>0.5961934483496734</v>
       </c>
       <c r="F20">
-        <v>0.7630750780204067</v>
+        <v>0.7589022016498745</v>
       </c>
       <c r="G20">
-        <v>0.6472642121206604</v>
+        <v>0.6775785959893739</v>
       </c>
       <c r="H20">
-        <v>0.0008252552286713843</v>
+        <v>0.0004303709491635388</v>
       </c>
       <c r="I20">
-        <v>0.0123712891451726</v>
+        <v>0.009004451143417747</v>
       </c>
       <c r="J20">
-        <v>0.3427177149960983</v>
+        <v>0.3599652952064503</v>
       </c>
       <c r="K20">
-        <v>0.2969136251652298</v>
+        <v>0.2677604859195739</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1163778338001009</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08578188789700736</v>
       </c>
       <c r="N20">
-        <v>0.567117875025076</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4822973803463597</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.841953838047573</v>
+        <v>0.5572225975315064</v>
       </c>
       <c r="Q20">
-        <v>2.043609206994574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4839570692830577</v>
+      </c>
+      <c r="R20">
+        <v>1.784485726641464</v>
+      </c>
+      <c r="S20">
+        <v>2.032565546571647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.823844760997815</v>
+        <v>1.829032968758412</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04846941709100605</v>
+        <v>0.05172696201230309</v>
       </c>
       <c r="E21">
-        <v>0.6791431837420845</v>
+        <v>0.6204157613206647</v>
       </c>
       <c r="F21">
-        <v>0.862051524194527</v>
+        <v>0.8290390211175662</v>
       </c>
       <c r="G21">
-        <v>0.7352811333173861</v>
+        <v>0.8595803299136975</v>
       </c>
       <c r="H21">
-        <v>0.0001900708917874638</v>
+        <v>3.595677645373829E-05</v>
       </c>
       <c r="I21">
-        <v>0.01053726305799518</v>
+        <v>0.007781828454119122</v>
       </c>
       <c r="J21">
-        <v>0.3794226067681876</v>
+        <v>0.2736809437549113</v>
       </c>
       <c r="K21">
-        <v>0.2828418415015719</v>
+        <v>0.2567518648597318</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1159839090229386</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07945548504303224</v>
       </c>
       <c r="N21">
-        <v>0.6505026683977349</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5483342906133046</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.92274472038099</v>
+        <v>0.6346346050023044</v>
       </c>
       <c r="Q21">
-        <v>2.307393303366439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5458875793447575</v>
+      </c>
+      <c r="R21">
+        <v>1.885044832156382</v>
+      </c>
+      <c r="S21">
+        <v>2.199425633488715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.957798217472714</v>
+        <v>1.955663704064079</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05200922569444799</v>
+        <v>0.05719843627445442</v>
       </c>
       <c r="E22">
-        <v>0.7061746727195768</v>
+        <v>0.6398671550012978</v>
       </c>
       <c r="F22">
-        <v>0.9264075523517334</v>
+        <v>0.8725308464466366</v>
       </c>
       <c r="G22">
-        <v>0.7922742144320836</v>
+        <v>0.9883971081734018</v>
       </c>
       <c r="H22">
-        <v>3.739827324722445E-05</v>
+        <v>9.019462459125549E-07</v>
       </c>
       <c r="I22">
-        <v>0.009150687103836042</v>
+        <v>0.006695144648945828</v>
       </c>
       <c r="J22">
-        <v>0.4032003631378842</v>
+        <v>0.2197327341784501</v>
       </c>
       <c r="K22">
-        <v>0.2742553863470629</v>
+        <v>0.2500936296780711</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1161893388937649</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07568040597628434</v>
       </c>
       <c r="N22">
-        <v>0.6952520676263418</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5876638935890028</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1.981003391588928</v>
+        <v>0.6746370599402525</v>
       </c>
       <c r="Q22">
-        <v>2.478215791571273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5822403963065028</v>
+      </c>
+      <c r="R22">
+        <v>1.956017147591325</v>
+      </c>
+      <c r="S22">
+        <v>2.300310491677493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.89165678085422</v>
+        <v>1.893730137102011</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05006720394695918</v>
+        <v>0.05393735344150485</v>
       </c>
       <c r="E23">
-        <v>0.6898632398719116</v>
+        <v>0.6290805991689439</v>
       </c>
       <c r="F23">
-        <v>0.8925404494052174</v>
+        <v>0.8527633112624358</v>
       </c>
       <c r="G23">
-        <v>0.7623836530398478</v>
+        <v>0.909116842640401</v>
       </c>
       <c r="H23">
-        <v>0.0001031286090045214</v>
+        <v>7.101955936339444E-06</v>
       </c>
       <c r="I23">
-        <v>0.00952344654541637</v>
+        <v>0.006851007057604441</v>
       </c>
       <c r="J23">
-        <v>0.3907752784622573</v>
+        <v>0.2591584798719708</v>
       </c>
       <c r="K23">
-        <v>0.2785297391199473</v>
+        <v>0.2533029007174665</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1158667843969834</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07761762980642706</v>
       </c>
       <c r="N23">
-        <v>0.6695546075885233</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5669793529800984</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1.94384321311162</v>
+        <v>0.652510729926135</v>
       </c>
       <c r="Q23">
-        <v>2.388719708832184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5635560837214797</v>
+      </c>
+      <c r="R23">
+        <v>1.911459539409151</v>
+      </c>
+      <c r="S23">
+        <v>2.258073404566829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.631416752694122</v>
+        <v>1.645743849181059</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04283156732670079</v>
+        <v>0.04349077654495659</v>
       </c>
       <c r="E24">
-        <v>0.631492349014124</v>
+        <v>0.583932360486294</v>
       </c>
       <c r="F24">
-        <v>0.7652648110734219</v>
+        <v>0.7610573523367776</v>
       </c>
       <c r="G24">
-        <v>0.6498761459124154</v>
+        <v>0.6791297593771901</v>
       </c>
       <c r="H24">
-        <v>0.0006675899808853414</v>
+        <v>0.0002861939385053747</v>
       </c>
       <c r="I24">
-        <v>0.01175673047825132</v>
+        <v>0.008310597816497456</v>
       </c>
       <c r="J24">
-        <v>0.3441677627643855</v>
+        <v>0.3623933314575112</v>
       </c>
       <c r="K24">
-        <v>0.2959387161370017</v>
+        <v>0.2670204600069068</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1160555305345925</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08555391728482631</v>
       </c>
       <c r="N24">
-        <v>0.5754511618908964</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4880461628283044</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.814908140990042</v>
+        <v>0.5664393826178014</v>
       </c>
       <c r="Q24">
-        <v>2.052175623316771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4896117416023245</v>
+      </c>
+      <c r="R24">
+        <v>1.76039938836351</v>
+      </c>
+      <c r="S24">
+        <v>2.041005162395351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.348641420885343</v>
+        <v>1.368256945272748</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03508801634534819</v>
+        <v>0.03534261312410081</v>
       </c>
       <c r="E25">
-        <v>0.5690470748376342</v>
+        <v>0.5215605508582044</v>
       </c>
       <c r="F25">
-        <v>0.6314848580872336</v>
+        <v>0.6323205576200905</v>
       </c>
       <c r="G25">
-        <v>0.5315652958069705</v>
+        <v>0.5471058383101166</v>
       </c>
       <c r="H25">
-        <v>0.001889105599189977</v>
+        <v>0.00111868536481996</v>
       </c>
       <c r="I25">
-        <v>0.01470853619621781</v>
+        <v>0.01036744900946651</v>
       </c>
       <c r="J25">
-        <v>0.2956853797079617</v>
+        <v>0.3310880361438961</v>
       </c>
       <c r="K25">
-        <v>0.3162739974112938</v>
+        <v>0.2838509082525897</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1183091532929557</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09541720602944803</v>
       </c>
       <c r="N25">
-        <v>0.4743980966153458</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4026806839339727</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.67971592647298</v>
+        <v>0.4645719647709257</v>
       </c>
       <c r="Q25">
-        <v>1.699333014030202</v>
+        <v>0.4048590146363793</v>
+      </c>
+      <c r="R25">
+        <v>1.612952796416494</v>
+      </c>
+      <c r="S25">
+        <v>1.704810109986198</v>
       </c>
     </row>
   </sheetData>
